--- a/impdata/Data/ApplicationData_v05.xlsx
+++ b/impdata/Data/ApplicationData_v05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD29AB-DA8C-41DE-86A9-4FFED3001712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C96C52A-268C-4D22-9CD2-1BAC64007362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="987">
   <si>
     <t>J.Zuegg</t>
   </si>
@@ -2635,9 +2635,6 @@
     <t>AST-Phoenix</t>
   </si>
   <si>
-    <t>DataSource_Type</t>
-  </si>
-  <si>
     <t>Patent</t>
   </si>
   <si>
@@ -2983,9 +2980,6 @@
     <t>dict_app</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -3005,6 +2999,9 @@
   </si>
   <si>
     <t>Process</t>
+  </si>
+  <si>
+    <t>Data_Type</t>
   </si>
 </sst>
 </file>
@@ -9600,11 +9597,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9623,13 +9621,13 @@
         <v>794</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>795</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>796</v>
@@ -9646,7 +9644,7 @@
         <v>d 83/140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>671</v>
       </c>
@@ -9660,19 +9658,19 @@
         <v>673</v>
       </c>
       <c r="F2" s="6">
-        <f>COUNTIF($C$2:$C$538,C2)</f>
+        <f t="shared" ref="F2:F33" si="0">COUNTIF($C$2:$C$538,C2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <f>LEN(C2)</f>
+        <f t="shared" ref="G2:G33" si="1">LEN(C2)</f>
         <v>3</v>
       </c>
       <c r="H2" s="6">
-        <f>LEN(E2)</f>
+        <f t="shared" ref="H2:H33" si="2">LEN(E2)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>671</v>
       </c>
@@ -9686,19 +9684,19 @@
         <v>675</v>
       </c>
       <c r="F3" s="6">
-        <f>COUNTIF($C$2:$C$538,C3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3" s="6">
-        <f>LEN(C3)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H3" s="6">
-        <f>LEN(E3)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>671</v>
       </c>
@@ -9712,19 +9710,19 @@
         <v>677</v>
       </c>
       <c r="F4" s="6">
-        <f>COUNTIF($C$2:$C$538,C4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="6">
-        <f>LEN(C4)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H4" s="6">
-        <f>LEN(E4)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>671</v>
       </c>
@@ -9732,88 +9730,88 @@
         <v>798</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E5" t="s">
         <v>678</v>
       </c>
       <c r="F5" s="6">
-        <f>COUNTIF($C$2:$C$538,C5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="6">
-        <f>LEN(C5)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H5" s="6">
-        <f>LEN(E5)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B6" t="s">
+        <v>980</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="B6" t="s">
-        <v>982</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>922</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>919</v>
+      </c>
+      <c r="B7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>921</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>923</v>
-      </c>
-      <c r="F6" s="6">
-        <f>COUNTIF($C$2:$C$538,C6)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <f>LEN(C6)</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="6">
-        <f>LEN(E6)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>920</v>
-      </c>
-      <c r="B7" t="s">
-        <v>982</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>922</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F7" s="6">
-        <f>COUNTIF($C$2:$C$538,C7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="6">
-        <f>LEN(C7)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H7" s="6">
-        <f>LEN(E7)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>855</v>
       </c>
       <c r="B8" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>853</v>
@@ -9822,24 +9820,24 @@
         <v>856</v>
       </c>
       <c r="F8" s="6">
-        <f>COUNTIF($C$2:$C$538,C8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="6">
-        <f>LEN(C8)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H8" s="6">
-        <f>LEN(E8)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>855</v>
       </c>
       <c r="B9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>854</v>
@@ -9848,24 +9846,24 @@
         <v>857</v>
       </c>
       <c r="F9" s="6">
-        <f>COUNTIF($C$2:$C$538,C9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="6">
-        <f>LEN(C9)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H9" s="6">
-        <f>LEN(E9)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>625</v>
       </c>
       <c r="B10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>626</v>
@@ -9874,24 +9872,24 @@
         <v>627</v>
       </c>
       <c r="F10" s="6">
-        <f>COUNTIF($C$2:$C$538,C10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="6">
-        <f>LEN(C10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H10" s="6">
-        <f>LEN(E10)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>625</v>
       </c>
       <c r="B11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>628</v>
@@ -9900,24 +9898,24 @@
         <v>629</v>
       </c>
       <c r="F11" s="6">
-        <f>COUNTIF($C$2:$C$538,C11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <f>LEN(C11)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H11" s="6">
-        <f>LEN(E11)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>625</v>
       </c>
       <c r="B12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>630</v>
@@ -9926,24 +9924,24 @@
         <v>630</v>
       </c>
       <c r="F12" s="6">
-        <f>COUNTIF($C$2:$C$538,C12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="6">
-        <f>LEN(C12)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H12" s="6">
-        <f>LEN(E12)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>625</v>
       </c>
       <c r="B13" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>631</v>
@@ -9952,24 +9950,24 @@
         <v>632</v>
       </c>
       <c r="F13" s="6">
-        <f>COUNTIF($C$2:$C$538,C13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="6">
-        <f>LEN(C13)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H13" s="6">
-        <f>LEN(E13)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>625</v>
       </c>
       <c r="B14" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>633</v>
@@ -9978,24 +9976,24 @@
         <v>634</v>
       </c>
       <c r="F14" s="6">
-        <f>COUNTIF($C$2:$C$538,C14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="6">
-        <f>LEN(C14)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H14" s="6">
-        <f>LEN(E14)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>561</v>
       </c>
       <c r="B15" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>562</v>
@@ -10004,24 +10002,24 @@
         <v>563</v>
       </c>
       <c r="F15" s="6">
-        <f>COUNTIF($C$2:$C$538,C15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="6">
-        <f>LEN(C15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H15" s="6">
-        <f>LEN(E15)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>561</v>
       </c>
       <c r="B16" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>564</v>
@@ -10030,24 +10028,24 @@
         <v>565</v>
       </c>
       <c r="F16" s="6">
-        <f>COUNTIF($C$2:$C$538,C16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="6">
-        <f>LEN(C16)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H16" s="6">
-        <f>LEN(E16)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>697</v>
       </c>
       <c r="B17" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>698</v>
@@ -10056,24 +10054,24 @@
         <v>699</v>
       </c>
       <c r="F17" s="6">
-        <f>COUNTIF($C$2:$C$538,C17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="6">
-        <f>LEN(C17)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H17" s="6">
-        <f>LEN(E17)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>697</v>
       </c>
       <c r="B18" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>700</v>
@@ -10082,24 +10080,24 @@
         <v>701</v>
       </c>
       <c r="F18" s="6">
-        <f>COUNTIF($C$2:$C$538,C18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="6">
-        <f>LEN(C18)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H18" s="6">
-        <f>LEN(E18)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>697</v>
       </c>
       <c r="B19" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>702</v>
@@ -10108,24 +10106,24 @@
         <v>703</v>
       </c>
       <c r="F19" s="6">
-        <f>COUNTIF($C$2:$C$538,C19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="6">
-        <f>LEN(C19)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H19" s="6">
-        <f>LEN(E19)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>697</v>
       </c>
       <c r="B20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>704</v>
@@ -10134,24 +10132,24 @@
         <v>705</v>
       </c>
       <c r="F20" s="6">
-        <f>COUNTIF($C$2:$C$538,C20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20" s="6">
-        <f>LEN(C20)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H20" s="6">
-        <f>LEN(E20)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>697</v>
       </c>
       <c r="B21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>706</v>
@@ -10160,21 +10158,21 @@
         <v>707</v>
       </c>
       <c r="F21" s="6">
-        <f>COUNTIF($C$2:$C$538,C21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21" s="6">
-        <f>LEN(C21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H21" s="6">
-        <f>LEN(E21)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B22" t="s">
         <v>798</v>
@@ -10186,209 +10184,209 @@
         <v>658</v>
       </c>
       <c r="F22" s="6">
-        <f>COUNTIF($C$2:$C$538,C22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G22" s="6">
-        <f>LEN(C22)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H22" s="6">
-        <f>LEN(E22)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B23" t="s">
         <v>798</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E23" t="s">
         <v>659</v>
       </c>
       <c r="F23" s="6">
-        <f>COUNTIF($C$2:$C$538,C23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G23" s="6">
-        <f>LEN(C23)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H23" s="6">
-        <f>LEN(E23)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B24" t="s">
         <v>798</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F24" s="6">
-        <f>COUNTIF($C$2:$C$538,C24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G24" s="6">
-        <f>LEN(C24)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H24" s="6">
-        <f>LEN(E24)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B25" t="s">
         <v>798</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F25" s="6">
-        <f>COUNTIF($C$2:$C$538,C25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G25" s="6">
-        <f>LEN(C25)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H25" s="6">
-        <f>LEN(E25)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B26" t="s">
         <v>798</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F26" s="6">
-        <f>COUNTIF($C$2:$C$538,C26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G26" s="6">
-        <f>LEN(C26)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H26" s="6">
-        <f>LEN(E26)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B27" t="s">
         <v>798</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E27" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F27" s="6">
-        <f>COUNTIF($C$2:$C$538,C27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27" s="6">
-        <f>LEN(C27)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="H27" s="6">
-        <f>LEN(E27)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B28" t="s">
         <v>798</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F28" s="6">
-        <f>COUNTIF($C$2:$C$538,C28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G28" s="6">
-        <f>LEN(C28)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="H28" s="6">
-        <f>LEN(E28)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B29" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F29" s="6">
-        <f>COUNTIF($C$2:$C$538,C29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G29" s="6">
-        <f>LEN(C29)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H29" s="6">
-        <f>LEN(E29)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B30" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>740</v>
@@ -10397,27 +10395,27 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F30" s="6">
-        <f>COUNTIF($C$2:$C$538,C30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G30" s="6">
-        <f>LEN(C30)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H30" s="6">
-        <f>LEN(E30)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B31" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>742</v>
@@ -10429,24 +10427,24 @@
         <v>743</v>
       </c>
       <c r="F31" s="6">
-        <f>COUNTIF($C$2:$C$538,C31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G31" s="6">
-        <f>LEN(C31)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H31" s="6">
-        <f>LEN(E31)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B32" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>744</v>
@@ -10458,154 +10456,154 @@
         <v>745</v>
       </c>
       <c r="F32" s="6">
-        <f>COUNTIF($C$2:$C$538,C32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G32" s="6">
-        <f>LEN(C32)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H32" s="6">
-        <f>LEN(E32)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>864</v>
+        <v>986</v>
       </c>
       <c r="B33" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <f>COUNTIF($C$2:$C$538,C33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G33" s="6">
-        <f>LEN(C33)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H33" s="6">
-        <f>LEN(E33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>864</v>
+        <v>986</v>
       </c>
       <c r="B34" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
       </c>
       <c r="F34" s="6">
-        <f>COUNTIF($C$2:$C$538,C34)</f>
+        <f t="shared" ref="F34:F65" si="3">COUNTIF($C$2:$C$538,C34)</f>
         <v>1</v>
       </c>
       <c r="G34" s="6">
-        <f>LEN(C34)</f>
+        <f t="shared" ref="G34:G65" si="4">LEN(C34)</f>
         <v>11</v>
       </c>
       <c r="H34" s="6">
-        <f>LEN(E34)</f>
+        <f t="shared" ref="H34:H65" si="5">LEN(E34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>864</v>
+        <v>986</v>
       </c>
       <c r="B35" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D35" s="6">
         <v>3</v>
       </c>
       <c r="F35" s="6">
-        <f>COUNTIF($C$2:$C$538,C35)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G35" s="6">
-        <f>LEN(C35)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H35" s="6">
-        <f>LEN(E35)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>864</v>
+        <v>986</v>
       </c>
       <c r="B36" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D36" s="6">
         <v>4</v>
       </c>
       <c r="F36" s="6">
-        <f>COUNTIF($C$2:$C$538,C36)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G36" s="6">
-        <f>LEN(C36)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H36" s="6">
-        <f>LEN(E36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>986</v>
+      </c>
+      <c r="B37" t="s">
+        <v>979</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>864</v>
-      </c>
-      <c r="B37" t="s">
-        <v>981</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>865</v>
       </c>
       <c r="D37" s="6">
         <v>5</v>
       </c>
       <c r="F37" s="6">
-        <f>COUNTIF($C$2:$C$538,C37)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G37" s="6">
-        <f>LEN(C37)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H37" s="6">
-        <f>LEN(E37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>838</v>
       </c>
       <c r="B38" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>839</v>
@@ -10617,24 +10615,24 @@
         <v>843</v>
       </c>
       <c r="F38" s="6">
-        <f>COUNTIF($C$2:$C$538,C38)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G38" s="6">
-        <f>LEN(C38)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H38" s="6">
-        <f>LEN(E38)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>838</v>
       </c>
       <c r="B39" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>851</v>
@@ -10646,24 +10644,24 @@
         <v>852</v>
       </c>
       <c r="F39" s="6">
-        <f>COUNTIF($C$2:$C$538,C39)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G39" s="6">
-        <f>LEN(C39)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H39" s="6">
-        <f>LEN(E39)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>838</v>
       </c>
       <c r="B40" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>840</v>
@@ -10675,24 +10673,24 @@
         <v>846</v>
       </c>
       <c r="F40" s="6">
-        <f>COUNTIF($C$2:$C$538,C40)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G40" s="6">
-        <f>LEN(C40)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H40" s="6">
-        <f>LEN(E40)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>838</v>
       </c>
       <c r="B41" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>841</v>
@@ -10704,24 +10702,24 @@
         <v>844</v>
       </c>
       <c r="F41" s="6">
-        <f>COUNTIF($C$2:$C$538,C41)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G41" s="6">
-        <f>LEN(C41)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H41" s="6">
-        <f>LEN(E41)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>838</v>
       </c>
       <c r="B42" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>842</v>
@@ -10733,24 +10731,24 @@
         <v>845</v>
       </c>
       <c r="F42" s="6">
-        <f>COUNTIF($C$2:$C$538,C42)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G42" s="6">
-        <f>LEN(C42)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H42" s="6">
-        <f>LEN(E42)</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>838</v>
       </c>
       <c r="B43" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>847</v>
@@ -10762,24 +10760,24 @@
         <v>849</v>
       </c>
       <c r="F43" s="6">
-        <f>COUNTIF($C$2:$C$538,C43)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G43" s="6">
-        <f>LEN(C43)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H43" s="6">
-        <f>LEN(E43)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>838</v>
       </c>
       <c r="B44" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>850</v>
@@ -10791,71 +10789,71 @@
         <v>848</v>
       </c>
       <c r="F44" s="6">
-        <f>COUNTIF($C$2:$C$538,C44)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G44" s="6">
-        <f>LEN(C44)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H44" s="6">
-        <f>LEN(E44)</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>911</v>
+      </c>
+      <c r="B45" t="s">
+        <v>984</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="E45" t="s">
+        <v>914</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>911</v>
+      </c>
+      <c r="B46" t="s">
+        <v>984</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="B45" t="s">
-        <v>986</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>915</v>
       </c>
-      <c r="F45" s="6">
-        <f>COUNTIF($C$2:$C$538,C45)</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="6">
-        <f>LEN(C45)</f>
+      <c r="F46" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H45" s="6">
-        <f>LEN(E45)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>912</v>
-      </c>
-      <c r="B46" t="s">
-        <v>986</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="E46" t="s">
-        <v>916</v>
-      </c>
-      <c r="F46" s="6">
-        <f>COUNTIF($C$2:$C$538,C46)</f>
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
-        <f>LEN(C46)</f>
-        <v>3</v>
-      </c>
       <c r="H46" s="6">
-        <f>LEN(E46)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>600</v>
       </c>
@@ -10869,19 +10867,19 @@
         <v>602</v>
       </c>
       <c r="F47" s="6">
-        <f>COUNTIF($C$2:$C$538,C47)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G47" s="6">
-        <f>LEN(C47)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H47" s="6">
-        <f>LEN(E47)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>600</v>
       </c>
@@ -10895,19 +10893,19 @@
         <v>604</v>
       </c>
       <c r="F48" s="6">
-        <f>COUNTIF($C$2:$C$538,C48)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G48" s="6">
-        <f>LEN(C48)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H48" s="6">
-        <f>LEN(E48)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>600</v>
       </c>
@@ -10921,19 +10919,19 @@
         <v>606</v>
       </c>
       <c r="F49" s="6">
-        <f>COUNTIF($C$2:$C$538,C49)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G49" s="6">
-        <f>LEN(C49)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H49" s="6">
-        <f>LEN(E49)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>600</v>
       </c>
@@ -10947,19 +10945,19 @@
         <v>608</v>
       </c>
       <c r="F50" s="6">
-        <f>COUNTIF($C$2:$C$538,C50)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G50" s="6">
-        <f>LEN(C50)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H50" s="6">
-        <f>LEN(E50)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>600</v>
       </c>
@@ -10973,19 +10971,19 @@
         <v>610</v>
       </c>
       <c r="F51" s="6">
-        <f>COUNTIF($C$2:$C$538,C51)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G51" s="6">
-        <f>LEN(C51)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H51" s="6">
-        <f>LEN(E51)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>600</v>
       </c>
@@ -10999,24 +10997,24 @@
         <v>612</v>
       </c>
       <c r="F52" s="6">
-        <f>COUNTIF($C$2:$C$538,C52)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G52" s="6">
-        <f>LEN(C52)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H52" s="6">
-        <f>LEN(E52)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>746</v>
       </c>
       <c r="B53" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>815</v>
@@ -11028,24 +11026,24 @@
         <v>751</v>
       </c>
       <c r="F53" s="6">
-        <f>COUNTIF($C$2:$C$538,C53)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G53" s="6">
-        <f>LEN(C53)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H53" s="6">
-        <f>LEN(E53)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>746</v>
       </c>
       <c r="B54" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>812</v>
@@ -11057,24 +11055,24 @@
         <v>750</v>
       </c>
       <c r="F54" s="6">
-        <f>COUNTIF($C$2:$C$538,C54)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G54" s="6">
-        <f>LEN(C54)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H54" s="6">
-        <f>LEN(E54)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>746</v>
       </c>
       <c r="B55" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>813</v>
@@ -11086,24 +11084,24 @@
         <v>748</v>
       </c>
       <c r="F55" s="6">
-        <f>COUNTIF($C$2:$C$538,C55)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G55" s="6">
-        <f>LEN(C55)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H55" s="6">
-        <f>LEN(E55)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>746</v>
       </c>
       <c r="B56" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>814</v>
@@ -11115,24 +11113,24 @@
         <v>749</v>
       </c>
       <c r="F56" s="6">
-        <f>COUNTIF($C$2:$C$538,C56)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G56" s="6">
-        <f>LEN(C56)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H56" s="6">
-        <f>LEN(E56)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>858</v>
       </c>
       <c r="B57" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>859</v>
@@ -11141,27 +11139,27 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F57" s="6">
-        <f>COUNTIF($C$2:$C$538,C57)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G57" s="6">
-        <f>LEN(C57)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H57" s="6">
-        <f>LEN(E57)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>858</v>
       </c>
       <c r="B58" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>860</v>
@@ -11170,27 +11168,27 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F58" s="6">
-        <f>COUNTIF($C$2:$C$538,C58)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G58" s="6">
-        <f>LEN(C58)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H58" s="6">
-        <f>LEN(E58)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>858</v>
       </c>
       <c r="B59" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>861</v>
@@ -11199,27 +11197,27 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F59" s="6">
-        <f>COUNTIF($C$2:$C$538,C59)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G59" s="6">
-        <f>LEN(C59)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H59" s="6">
-        <f>LEN(E59)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>858</v>
       </c>
       <c r="B60" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>863</v>
@@ -11228,24 +11226,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="6">
-        <f>COUNTIF($C$2:$C$538,C60)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G60" s="6">
-        <f>LEN(C60)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H60" s="6">
-        <f>LEN(E60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>858</v>
       </c>
       <c r="B61" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>862</v>
@@ -11254,123 +11252,123 @@
         <v>5</v>
       </c>
       <c r="F61" s="6">
-        <f>COUNTIF($C$2:$C$538,C61)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G61" s="6">
-        <f>LEN(C61)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H61" s="6">
-        <f>LEN(E61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>858</v>
       </c>
       <c r="B62" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D62" s="6">
         <v>6</v>
       </c>
       <c r="F62" s="6">
-        <f>COUNTIF($C$2:$C$538,C62)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G62" s="6">
-        <f>LEN(C62)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H62" s="6">
-        <f>LEN(E62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>868</v>
+      </c>
+      <c r="B63" t="s">
+        <v>979</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="B63" t="s">
-        <v>981</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H63" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>868</v>
+      </c>
+      <c r="B64" t="s">
+        <v>979</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>870</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6">
-        <f>COUNTIF($C$2:$C$538,C63)</f>
-        <v>1</v>
-      </c>
-      <c r="G63" s="6">
-        <f>LEN(C63)</f>
-        <v>8</v>
-      </c>
-      <c r="H63" s="6">
-        <f>LEN(E63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>869</v>
-      </c>
-      <c r="B64" t="s">
-        <v>981</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>871</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
       </c>
       <c r="F64" s="6">
-        <f>COUNTIF($C$2:$C$538,C64)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G64" s="6">
-        <f>LEN(C64)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H64" s="6">
-        <f>LEN(E64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B65" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D65" s="6">
         <v>3</v>
       </c>
       <c r="F65" s="6">
-        <f>COUNTIF($C$2:$C$538,C65)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G65" s="6">
-        <f>LEN(C65)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H65" s="6">
-        <f>LEN(E65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>576</v>
       </c>
@@ -11387,19 +11385,19 @@
         <v>593</v>
       </c>
       <c r="F66" s="6">
-        <f>COUNTIF($C$2:$C$538,C66)</f>
+        <f t="shared" ref="F66:F97" si="6">COUNTIF($C$2:$C$538,C66)</f>
         <v>1</v>
       </c>
       <c r="G66" s="6">
-        <f>LEN(C66)</f>
+        <f t="shared" ref="G66:G97" si="7">LEN(C66)</f>
         <v>2</v>
       </c>
       <c r="H66" s="6">
-        <f>LEN(E66)</f>
+        <f t="shared" ref="H66:H97" si="8">LEN(E66)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>576</v>
       </c>
@@ -11416,19 +11414,19 @@
         <v>578</v>
       </c>
       <c r="F67" s="6">
-        <f>COUNTIF($C$2:$C$538,C67)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G67" s="6">
-        <f>LEN(C67)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H67" s="6">
-        <f>LEN(E67)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>576</v>
       </c>
@@ -11445,19 +11443,19 @@
         <v>580</v>
       </c>
       <c r="F68" s="6">
-        <f>COUNTIF($C$2:$C$538,C68)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G68" s="6">
-        <f>LEN(C68)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H68" s="6">
-        <f>LEN(E68)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>576</v>
       </c>
@@ -11474,19 +11472,19 @@
         <v>582</v>
       </c>
       <c r="F69" s="6">
-        <f>COUNTIF($C$2:$C$538,C69)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G69" s="6">
-        <f>LEN(C69)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H69" s="6">
-        <f>LEN(E69)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>576</v>
       </c>
@@ -11503,19 +11501,19 @@
         <v>830</v>
       </c>
       <c r="F70" s="6">
-        <f>COUNTIF($C$2:$C$538,C70)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G70" s="6">
-        <f>LEN(C70)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H70" s="6">
-        <f>LEN(E70)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>576</v>
       </c>
@@ -11532,19 +11530,19 @@
         <v>584</v>
       </c>
       <c r="F71" s="6">
-        <f>COUNTIF($C$2:$C$538,C71)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G71" s="6">
-        <f>LEN(C71)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H71" s="6">
-        <f>LEN(E71)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>576</v>
       </c>
@@ -11561,19 +11559,19 @@
         <v>833</v>
       </c>
       <c r="F72" s="6">
-        <f>COUNTIF($C$2:$C$538,C72)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G72" s="6">
-        <f>LEN(C72)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H72" s="6">
-        <f>LEN(E72)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>576</v>
       </c>
@@ -11590,19 +11588,19 @@
         <v>834</v>
       </c>
       <c r="F73" s="6">
-        <f>COUNTIF($C$2:$C$538,C73)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G73" s="6">
-        <f>LEN(C73)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H73" s="6">
-        <f>LEN(E73)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>576</v>
       </c>
@@ -11619,19 +11617,19 @@
         <v>588</v>
       </c>
       <c r="F74" s="6">
-        <f>COUNTIF($C$2:$C$538,C74)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G74" s="6">
-        <f>LEN(C74)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H74" s="6">
-        <f>LEN(E74)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>576</v>
       </c>
@@ -11648,19 +11646,19 @@
         <v>586</v>
       </c>
       <c r="F75" s="6">
-        <f>COUNTIF($C$2:$C$538,C75)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G75" s="6">
-        <f>LEN(C75)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H75" s="6">
-        <f>LEN(E75)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>576</v>
       </c>
@@ -11677,19 +11675,19 @@
         <v>832</v>
       </c>
       <c r="F76" s="6">
-        <f>COUNTIF($C$2:$C$538,C76)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G76" s="6">
-        <f>LEN(C76)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H76" s="6">
-        <f>LEN(E76)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>589</v>
       </c>
@@ -11703,19 +11701,19 @@
         <v>591</v>
       </c>
       <c r="F77" s="6">
-        <f>COUNTIF($C$2:$C$538,C77)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G77" s="6">
-        <f>LEN(C77)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H77" s="6">
-        <f>LEN(E77)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>589</v>
       </c>
@@ -11729,19 +11727,19 @@
         <v>593</v>
       </c>
       <c r="F78" s="6">
-        <f>COUNTIF($C$2:$C$538,C78)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G78" s="6">
-        <f>LEN(C78)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H78" s="6">
-        <f>LEN(E78)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>589</v>
       </c>
@@ -11755,19 +11753,19 @@
         <v>595</v>
       </c>
       <c r="F79" s="6">
-        <f>COUNTIF($C$2:$C$538,C79)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G79" s="6">
-        <f>LEN(C79)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H79" s="6">
-        <f>LEN(E79)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>589</v>
       </c>
@@ -11781,19 +11779,19 @@
         <v>597</v>
       </c>
       <c r="F80" s="6">
-        <f>COUNTIF($C$2:$C$538,C80)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G80" s="6">
-        <f>LEN(C80)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H80" s="6">
-        <f>LEN(E80)</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>589</v>
       </c>
@@ -11807,19 +11805,19 @@
         <v>599</v>
       </c>
       <c r="F81" s="6">
-        <f>COUNTIF($C$2:$C$538,C81)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G81" s="6">
-        <f>LEN(C81)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H81" s="6">
-        <f>LEN(E81)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>613</v>
       </c>
@@ -11833,19 +11831,19 @@
         <v>615</v>
       </c>
       <c r="F82" s="6">
-        <f>COUNTIF($C$2:$C$538,C82)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G82" s="6">
-        <f>LEN(C82)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="H82" s="6">
-        <f>LEN(E82)</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>613</v>
       </c>
@@ -11859,19 +11857,19 @@
         <v>617</v>
       </c>
       <c r="F83" s="6">
-        <f>COUNTIF($C$2:$C$538,C83)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G83" s="6">
-        <f>LEN(C83)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="H83" s="6">
-        <f>LEN(E83)</f>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>613</v>
       </c>
@@ -11885,19 +11883,19 @@
         <v>619</v>
       </c>
       <c r="F84" s="6">
-        <f>COUNTIF($C$2:$C$538,C84)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G84" s="6">
-        <f>LEN(C84)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="H84" s="6">
-        <f>LEN(E84)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>613</v>
       </c>
@@ -11911,19 +11909,19 @@
         <v>621</v>
       </c>
       <c r="F85" s="6">
-        <f>COUNTIF($C$2:$C$538,C85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G85" s="6">
-        <f>LEN(C85)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="H85" s="6">
-        <f>LEN(E85)</f>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>613</v>
       </c>
@@ -11937,19 +11935,19 @@
         <v>623</v>
       </c>
       <c r="F86" s="6">
-        <f>COUNTIF($C$2:$C$538,C86)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G86" s="6">
-        <f>LEN(C86)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="H86" s="6">
-        <f>LEN(E86)</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>613</v>
       </c>
@@ -11963,19 +11961,19 @@
         <v>624</v>
       </c>
       <c r="F87" s="6">
-        <f>COUNTIF($C$2:$C$538,C87)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G87" s="6">
-        <f>LEN(C87)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="H87" s="6">
-        <f>LEN(E87)</f>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>571</v>
       </c>
@@ -11989,19 +11987,19 @@
         <v>573</v>
       </c>
       <c r="F88" s="6">
-        <f>COUNTIF($C$2:$C$538,C88)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G88" s="6">
-        <f>LEN(C88)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H88" s="6">
-        <f>LEN(E88)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>571</v>
       </c>
@@ -12015,24 +12013,24 @@
         <v>575</v>
       </c>
       <c r="F89" s="6">
-        <f>COUNTIF($C$2:$C$538,C89)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G89" s="6">
-        <f>LEN(C89)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H89" s="6">
-        <f>LEN(E89)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>708</v>
       </c>
       <c r="B90" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>709</v>
@@ -12041,24 +12039,24 @@
         <v>709</v>
       </c>
       <c r="F90" s="6">
-        <f>COUNTIF($C$2:$C$538,C90)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G90" s="6">
-        <f>LEN(C90)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H90" s="6">
-        <f>LEN(E90)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>708</v>
       </c>
       <c r="B91" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>710</v>
@@ -12067,24 +12065,24 @@
         <v>710</v>
       </c>
       <c r="F91" s="6">
-        <f>COUNTIF($C$2:$C$538,C91)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G91" s="6">
-        <f>LEN(C91)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H91" s="6">
-        <f>LEN(E91)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>708</v>
       </c>
       <c r="B92" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>711</v>
@@ -12093,24 +12091,24 @@
         <v>711</v>
       </c>
       <c r="F92" s="6">
-        <f>COUNTIF($C$2:$C$538,C92)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G92" s="6">
-        <f>LEN(C92)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H92" s="6">
-        <f>LEN(E92)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>679</v>
       </c>
       <c r="B93" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>680</v>
@@ -12119,24 +12117,24 @@
         <v>681</v>
       </c>
       <c r="F93" s="6">
-        <f>COUNTIF($C$2:$C$538,C93)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G93" s="6">
-        <f>LEN(C93)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H93" s="6">
-        <f>LEN(E93)</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>679</v>
       </c>
       <c r="B94" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>682</v>
@@ -12145,24 +12143,24 @@
         <v>683</v>
       </c>
       <c r="F94" s="6">
-        <f>COUNTIF($C$2:$C$538,C94)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G94" s="6">
-        <f>LEN(C94)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H94" s="6">
-        <f>LEN(E94)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>679</v>
       </c>
       <c r="B95" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>684</v>
@@ -12171,24 +12169,24 @@
         <v>685</v>
       </c>
       <c r="F95" s="6">
-        <f>COUNTIF($C$2:$C$538,C95)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G95" s="6">
-        <f>LEN(C95)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H95" s="6">
-        <f>LEN(E95)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>679</v>
       </c>
       <c r="B96" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>686</v>
@@ -12197,24 +12195,24 @@
         <v>687</v>
       </c>
       <c r="F96" s="6">
-        <f>COUNTIF($C$2:$C$538,C96)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G96" s="6">
-        <f>LEN(C96)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H96" s="6">
-        <f>LEN(E96)</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>679</v>
       </c>
       <c r="B97" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>688</v>
@@ -12223,24 +12221,24 @@
         <v>689</v>
       </c>
       <c r="F97" s="6">
-        <f>COUNTIF($C$2:$C$538,C97)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G97" s="6">
-        <f>LEN(C97)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H97" s="6">
-        <f>LEN(E97)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>690</v>
       </c>
       <c r="B98" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C98" s="8">
         <v>24</v>
@@ -12249,24 +12247,24 @@
         <v>691</v>
       </c>
       <c r="F98" s="6">
-        <f>COUNTIF($C$2:$C$538,C98)</f>
+        <f t="shared" ref="F98:F129" si="9">COUNTIF($C$2:$C$538,C98)</f>
         <v>1</v>
       </c>
       <c r="G98" s="6">
-        <f>LEN(C98)</f>
+        <f t="shared" ref="G98:G129" si="10">LEN(C98)</f>
         <v>2</v>
       </c>
       <c r="H98" s="6">
-        <f>LEN(E98)</f>
+        <f t="shared" ref="H98:H129" si="11">LEN(E98)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>690</v>
       </c>
       <c r="B99" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C99" s="8">
         <v>48</v>
@@ -12275,24 +12273,24 @@
         <v>692</v>
       </c>
       <c r="F99" s="6">
-        <f>COUNTIF($C$2:$C$538,C99)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G99" s="6">
-        <f>LEN(C99)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H99" s="6">
-        <f>LEN(E99)</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>690</v>
       </c>
       <c r="B100" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C100" s="8">
         <v>96</v>
@@ -12301,24 +12299,24 @@
         <v>693</v>
       </c>
       <c r="F100" s="6">
-        <f>COUNTIF($C$2:$C$538,C100)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G100" s="6">
-        <f>LEN(C100)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H100" s="6">
-        <f>LEN(E100)</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>690</v>
       </c>
       <c r="B101" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C101" s="8">
         <v>384</v>
@@ -12327,24 +12325,24 @@
         <v>694</v>
       </c>
       <c r="F101" s="6">
-        <f>COUNTIF($C$2:$C$538,C101)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G101" s="6">
-        <f>LEN(C101)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H101" s="6">
-        <f>LEN(E101)</f>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>690</v>
       </c>
       <c r="B102" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C102" s="8">
         <v>1536</v>
@@ -12353,24 +12351,24 @@
         <v>695</v>
       </c>
       <c r="F102" s="6">
-        <f>COUNTIF($C$2:$C$538,C102)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G102" s="6">
-        <f>LEN(C102)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H102" s="6">
-        <f>LEN(E102)</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>690</v>
       </c>
       <c r="B103" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C103" s="8">
         <v>3456</v>
@@ -12379,24 +12377,24 @@
         <v>696</v>
       </c>
       <c r="F103" s="6">
-        <f>COUNTIF($C$2:$C$538,C103)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G103" s="6">
-        <f>LEN(C103)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H103" s="6">
-        <f>LEN(E103)</f>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>721</v>
       </c>
       <c r="B104" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>722</v>
@@ -12405,24 +12403,24 @@
         <v>723</v>
       </c>
       <c r="F104" s="6">
-        <f>COUNTIF($C$2:$C$538,C104)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G104" s="6">
-        <f>LEN(C104)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H104" s="6">
-        <f>LEN(E104)</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>721</v>
       </c>
       <c r="B105" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>724</v>
@@ -12431,24 +12429,24 @@
         <v>725</v>
       </c>
       <c r="F105" s="6">
-        <f>COUNTIF($C$2:$C$538,C105)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G105" s="6">
-        <f>LEN(C105)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H105" s="6">
-        <f>LEN(E105)</f>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>721</v>
       </c>
       <c r="B106" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>726</v>
@@ -12457,24 +12455,24 @@
         <v>727</v>
       </c>
       <c r="F106" s="6">
-        <f>COUNTIF($C$2:$C$538,C106)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G106" s="6">
-        <f>LEN(C106)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H106" s="6">
-        <f>LEN(E106)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>721</v>
       </c>
       <c r="B107" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>728</v>
@@ -12483,82 +12481,82 @@
         <v>729</v>
       </c>
       <c r="F107" s="6">
-        <f>COUNTIF($C$2:$C$538,C107)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G107" s="6">
-        <f>LEN(C107)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H107" s="6">
-        <f>LEN(E107)</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>739</v>
       </c>
       <c r="B108" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F108" s="6">
-        <f>COUNTIF($C$2:$C$538,C108)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G108" s="6">
-        <f>LEN(C108)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H108" s="6">
-        <f>LEN(E108)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>739</v>
       </c>
       <c r="B109" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D109" s="6">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F109" s="6">
-        <f>COUNTIF($C$2:$C$538,C109)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G109" s="6">
-        <f>LEN(C109)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H109" s="6">
-        <f>LEN(E109)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>739</v>
       </c>
       <c r="B110" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>741</v>
@@ -12567,56 +12565,56 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F110" s="6">
-        <f>COUNTIF($C$2:$C$538,C110)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G110" s="6">
-        <f>LEN(C110)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H110" s="6">
-        <f>LEN(E110)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>739</v>
       </c>
       <c r="B111" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D111" s="6">
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F111" s="6">
-        <f>COUNTIF($C$2:$C$538,C111)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G111" s="6">
-        <f>LEN(C111)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="H111" s="6">
-        <f>LEN(E111)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>730</v>
       </c>
       <c r="B112" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>735</v>
@@ -12628,24 +12626,24 @@
         <v>736</v>
       </c>
       <c r="F112" s="6">
-        <f>COUNTIF($C$2:$C$538,C112)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G112" s="6">
-        <f>LEN(C112)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H112" s="6">
-        <f>LEN(E112)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>730</v>
       </c>
       <c r="B113" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>737</v>
@@ -12657,24 +12655,24 @@
         <v>738</v>
       </c>
       <c r="F113" s="6">
-        <f>COUNTIF($C$2:$C$538,C113)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G113" s="6">
-        <f>LEN(C113)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="H113" s="6">
-        <f>LEN(E113)</f>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>730</v>
       </c>
       <c r="B114" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>733</v>
@@ -12686,24 +12684,24 @@
         <v>734</v>
       </c>
       <c r="F114" s="6">
-        <f>COUNTIF($C$2:$C$538,C114)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G114" s="6">
-        <f>LEN(C114)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="H114" s="6">
-        <f>LEN(E114)</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>730</v>
       </c>
       <c r="B115" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>731</v>
@@ -12715,24 +12713,24 @@
         <v>732</v>
       </c>
       <c r="F115" s="6">
-        <f>COUNTIF($C$2:$C$538,C115)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G115" s="6">
-        <f>LEN(C115)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H115" s="6">
-        <f>LEN(E115)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>823</v>
       </c>
       <c r="B116" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>825</v>
@@ -12744,24 +12742,24 @@
         <v>829</v>
       </c>
       <c r="F116" s="6">
-        <f>COUNTIF($C$2:$C$538,C116)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G116" s="6">
-        <f>LEN(C116)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H116" s="6">
-        <f>LEN(E116)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>823</v>
       </c>
       <c r="B117" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>826</v>
@@ -12773,24 +12771,24 @@
         <v>827</v>
       </c>
       <c r="F117" s="6">
-        <f>COUNTIF($C$2:$C$538,C117)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G117" s="6">
-        <f>LEN(C117)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H117" s="6">
-        <f>LEN(E117)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>823</v>
       </c>
       <c r="B118" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>824</v>
@@ -12802,19 +12800,19 @@
         <v>828</v>
       </c>
       <c r="F118" s="6">
-        <f>COUNTIF($C$2:$C$538,C118)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G118" s="6">
-        <f>LEN(C118)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H118" s="6">
-        <f>LEN(E118)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>566</v>
       </c>
@@ -12828,19 +12826,19 @@
         <v>568</v>
       </c>
       <c r="F119" s="6">
-        <f>COUNTIF($C$2:$C$538,C119)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G119" s="6">
-        <f>LEN(C119)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H119" s="6">
-        <f>LEN(E119)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>566</v>
       </c>
@@ -12854,175 +12852,175 @@
         <v>570</v>
       </c>
       <c r="F120" s="6">
-        <f>COUNTIF($C$2:$C$538,C120)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G120" s="6">
-        <f>LEN(C120)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H120" s="6">
-        <f>LEN(E120)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B121" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C121" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="E121" t="s">
+        <v>874</v>
+      </c>
+      <c r="F121" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G121" s="6">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H121" s="6">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>977</v>
+      </c>
+      <c r="B122" t="s">
+        <v>985</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="E122" t="s">
+        <v>875</v>
+      </c>
+      <c r="F122" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G122" s="6">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H122" s="6">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>977</v>
+      </c>
+      <c r="B123" t="s">
+        <v>985</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="E121" t="s">
-        <v>875</v>
-      </c>
-      <c r="F121" s="6">
-        <f>COUNTIF($C$2:$C$538,C121)</f>
-        <v>1</v>
-      </c>
-      <c r="G121" s="6">
-        <f>LEN(C121)</f>
+      <c r="E123" t="s">
+        <v>876</v>
+      </c>
+      <c r="F123" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H121" s="6">
-        <f>LEN(E121)</f>
+      <c r="H123" s="6">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>977</v>
+      </c>
+      <c r="B124" t="s">
+        <v>985</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="E124" t="s">
+        <v>877</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H124" s="6">
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>978</v>
-      </c>
-      <c r="B122" t="s">
-        <v>987</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="E122" t="s">
-        <v>876</v>
-      </c>
-      <c r="F122" s="6">
-        <f>COUNTIF($C$2:$C$538,C122)</f>
-        <v>1</v>
-      </c>
-      <c r="G122" s="6">
-        <f>LEN(C122)</f>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>977</v>
+      </c>
+      <c r="B125" t="s">
+        <v>985</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="E125" t="s">
+        <v>873</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H122" s="6">
-        <f>LEN(E122)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>978</v>
-      </c>
-      <c r="B123" t="s">
-        <v>987</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E123" t="s">
-        <v>877</v>
-      </c>
-      <c r="F123" s="6">
-        <f>COUNTIF($C$2:$C$538,C123)</f>
-        <v>1</v>
-      </c>
-      <c r="G123" s="6">
-        <f>LEN(C123)</f>
-        <v>3</v>
-      </c>
-      <c r="H123" s="6">
-        <f>LEN(E123)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>978</v>
-      </c>
-      <c r="B124" t="s">
-        <v>987</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="H125" s="6">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>977</v>
+      </c>
+      <c r="B126" t="s">
+        <v>985</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="F124" s="6">
-        <f>COUNTIF($C$2:$C$538,C124)</f>
-        <v>1</v>
-      </c>
-      <c r="G124" s="6">
-        <f>LEN(C124)</f>
-        <v>3</v>
-      </c>
-      <c r="H124" s="6">
-        <f>LEN(E124)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>978</v>
-      </c>
-      <c r="B125" t="s">
-        <v>987</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="E125" t="s">
-        <v>874</v>
-      </c>
-      <c r="F125" s="6">
-        <f>COUNTIF($C$2:$C$538,C125)</f>
-        <v>1</v>
-      </c>
-      <c r="G125" s="6">
-        <f>LEN(C125)</f>
-        <v>3</v>
-      </c>
-      <c r="H125" s="6">
-        <f>LEN(E125)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>978</v>
-      </c>
-      <c r="B126" t="s">
-        <v>987</v>
-      </c>
-      <c r="C126" s="8" t="s">
+      <c r="E126" t="s">
         <v>879</v>
       </c>
-      <c r="E126" t="s">
-        <v>880</v>
-      </c>
       <c r="F126" s="6">
-        <f>COUNTIF($C$2:$C$538,C126)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G126" s="6">
-        <f>LEN(C126)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H126" s="6">
-        <f>LEN(E126)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>660</v>
       </c>
@@ -13036,19 +13034,19 @@
         <v>662</v>
       </c>
       <c r="F127" s="6">
-        <f>COUNTIF($C$2:$C$538,C127)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G127" s="6">
-        <f>LEN(C127)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H127" s="6">
-        <f>LEN(E127)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>660</v>
       </c>
@@ -13062,19 +13060,19 @@
         <v>664</v>
       </c>
       <c r="F128" s="6">
-        <f>COUNTIF($C$2:$C$538,C128)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G128" s="6">
-        <f>LEN(C128)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="H128" s="6">
-        <f>LEN(E128)</f>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>660</v>
       </c>
@@ -13088,19 +13086,19 @@
         <v>666</v>
       </c>
       <c r="F129" s="6">
-        <f>COUNTIF($C$2:$C$538,C129)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G129" s="6">
-        <f>LEN(C129)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="H129" s="6">
-        <f>LEN(E129)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>660</v>
       </c>
@@ -13114,19 +13112,19 @@
         <v>668</v>
       </c>
       <c r="F130" s="6">
-        <f>COUNTIF($C$2:$C$538,C130)</f>
+        <f t="shared" ref="F130:F161" si="12">COUNTIF($C$2:$C$538,C130)</f>
         <v>1</v>
       </c>
       <c r="G130" s="6">
-        <f>LEN(C130)</f>
+        <f t="shared" ref="G130:G161" si="13">LEN(C130)</f>
         <v>9</v>
       </c>
       <c r="H130" s="6">
-        <f>LEN(E130)</f>
+        <f t="shared" ref="H130:H161" si="14">LEN(E130)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>660</v>
       </c>
@@ -13140,817 +13138,817 @@
         <v>670</v>
       </c>
       <c r="F131" s="6">
-        <f>COUNTIF($C$2:$C$538,C131)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G131" s="6">
-        <f>LEN(C131)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="H131" s="6">
-        <f>LEN(E131)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B132" t="s">
         <v>798</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E132" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F132" s="6">
-        <f>COUNTIF($C$2:$C$538,C132)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G132" s="6">
-        <f>LEN(C132)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="H132" s="6">
-        <f>LEN(E132)</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B133" t="s">
         <v>798</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E133" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F133" s="6">
-        <f>COUNTIF($C$2:$C$538,C133)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G133" s="6">
-        <f>LEN(C133)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="H133" s="6">
-        <f>LEN(E133)</f>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B134" t="s">
         <v>798</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F134" s="6">
-        <f>COUNTIF($C$2:$C$538,C134)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G134" s="6">
-        <f>LEN(C134)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="H134" s="6">
-        <f>LEN(E134)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B135" t="s">
         <v>798</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F135" s="6">
-        <f>COUNTIF($C$2:$C$538,C135)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G135" s="6">
-        <f>LEN(C135)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="H135" s="6">
-        <f>LEN(E135)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B136" t="s">
         <v>798</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F136" s="6">
-        <f>COUNTIF($C$2:$C$538,C136)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G136" s="6">
-        <f>LEN(C136)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="H136" s="6">
-        <f>LEN(E136)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B137" t="s">
         <v>798</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F137" s="6">
-        <f>COUNTIF($C$2:$C$538,C137)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G137" s="6">
-        <f>LEN(C137)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="H137" s="6">
-        <f>LEN(E137)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B138" t="s">
         <v>798</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F138" s="6">
-        <f>COUNTIF($C$2:$C$538,C138)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G138" s="6">
-        <f>LEN(C138)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="H138" s="6">
-        <f>LEN(E138)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B139" t="s">
         <v>798</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F139" s="6">
-        <f>COUNTIF($C$2:$C$538,C139)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G139" s="6">
-        <f>LEN(C139)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="H139" s="6">
-        <f>LEN(E139)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B140" t="s">
         <v>798</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F140" s="6">
-        <f>COUNTIF($C$2:$C$538,C140)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G140" s="6">
-        <f>LEN(C140)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="H140" s="6">
-        <f>LEN(E140)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B141" t="s">
         <v>798</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F141" s="6">
-        <f>COUNTIF($C$2:$C$538,C141)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G141" s="6">
-        <f>LEN(C141)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="H141" s="6">
-        <f>LEN(E141)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B142" t="s">
         <v>798</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F142" s="6">
-        <f>COUNTIF($C$2:$C$538,C142)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G142" s="6">
-        <f>LEN(C142)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="H142" s="6">
-        <f>LEN(E142)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B143" t="s">
         <v>798</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F143" s="6">
-        <f>COUNTIF($C$2:$C$538,C143)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G143" s="6">
-        <f>LEN(C143)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="H143" s="6">
-        <f>LEN(E143)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B144" t="s">
         <v>798</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E144" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F144" s="6">
-        <f>COUNTIF($C$2:$C$538,C144)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G144" s="6">
-        <f>LEN(C144)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="H144" s="6">
-        <f>LEN(E144)</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B145" t="s">
         <v>798</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E145" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F145" s="6">
-        <f>COUNTIF($C$2:$C$538,C145)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G145" s="6">
-        <f>LEN(C145)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="H145" s="6">
-        <f>LEN(E145)</f>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B146" t="s">
         <v>798</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E146" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F146" s="6">
-        <f>COUNTIF($C$2:$C$538,C146)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G146" s="6">
-        <f>LEN(C146)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="H146" s="6">
-        <f>LEN(E146)</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B147" t="s">
         <v>798</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E147" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F147" s="6">
-        <f>COUNTIF($C$2:$C$538,C147)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G147" s="6">
-        <f>LEN(C147)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="H147" s="6">
-        <f>LEN(E147)</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B148" t="s">
         <v>798</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E148" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F148" s="6">
-        <f>COUNTIF($C$2:$C$538,C148)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G148" s="6">
-        <f>LEN(C148)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="H148" s="6">
-        <f>LEN(E148)</f>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B149" t="s">
         <v>798</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E149" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F149" s="6">
-        <f>COUNTIF($C$2:$C$538,C149)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G149" s="6">
-        <f>LEN(C149)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="H149" s="6">
-        <f>LEN(E149)</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B150" t="s">
         <v>798</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E150" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F150" s="6">
-        <f>COUNTIF($C$2:$C$538,C150)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G150" s="6">
-        <f>LEN(C150)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="H150" s="6">
-        <f>LEN(E150)</f>
+        <f t="shared" si="14"/>
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B151" t="s">
         <v>798</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E151" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F151" s="6">
-        <f>COUNTIF($C$2:$C$538,C151)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G151" s="6">
-        <f>LEN(C151)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="H151" s="6">
-        <f>LEN(E151)</f>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B152" t="s">
         <v>798</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E152" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F152" s="6">
-        <f>COUNTIF($C$2:$C$538,C152)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G152" s="6">
-        <f>LEN(C152)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="H152" s="6">
-        <f>LEN(E152)</f>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B153" t="s">
         <v>798</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E153" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F153" s="6">
-        <f>COUNTIF($C$2:$C$538,C153)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G153" s="6">
-        <f>LEN(C153)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="H153" s="6">
-        <f>LEN(E153)</f>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B154" t="s">
         <v>798</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E154" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F154" s="6">
-        <f>COUNTIF($C$2:$C$538,C154)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G154" s="6">
-        <f>LEN(C154)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="H154" s="6">
-        <f>LEN(E154)</f>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B155" t="s">
         <v>798</v>
       </c>
       <c r="C155" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="F155" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G155" s="6">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="H155" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>970</v>
-      </c>
-      <c r="F155" s="6">
-        <f>COUNTIF($C$2:$C$538,C155)</f>
-        <v>1</v>
-      </c>
-      <c r="G155" s="6">
-        <f>LEN(C155)</f>
-        <v>10</v>
-      </c>
-      <c r="H155" s="6">
-        <f>LEN(E155)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>971</v>
       </c>
       <c r="B156" t="s">
         <v>798</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F156" s="6">
-        <f>COUNTIF($C$2:$C$538,C156)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G156" s="6">
-        <f>LEN(C156)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="H156" s="6">
-        <f>LEN(E156)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B157" t="s">
         <v>798</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F157" s="6">
-        <f>COUNTIF($C$2:$C$538,C157)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G157" s="6">
-        <f>LEN(C157)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="H157" s="6">
-        <f>LEN(E157)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B158" t="s">
         <v>798</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F158" s="6">
-        <f>COUNTIF($C$2:$C$538,C158)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G158" s="6">
-        <f>LEN(C158)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="H158" s="6">
-        <f>LEN(E158)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B159" t="s">
         <v>798</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F159" s="6">
-        <f>COUNTIF($C$2:$C$538,C159)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G159" s="6">
-        <f>LEN(C159)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="H159" s="6">
-        <f>LEN(E159)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B160" t="s">
         <v>798</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F160" s="6">
-        <f>COUNTIF($C$2:$C$538,C160)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G160" s="6">
-        <f>LEN(C160)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="H160" s="6">
-        <f>LEN(E160)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B161" t="s">
         <v>798</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F161" s="6">
-        <f>COUNTIF($C$2:$C$538,C161)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G161" s="6">
-        <f>LEN(C161)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="H161" s="6">
-        <f>LEN(E161)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B162" t="s">
         <v>798</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F162" s="6">
-        <f>COUNTIF($C$2:$C$538,C162)</f>
+        <f t="shared" ref="F162:F193" si="15">COUNTIF($C$2:$C$538,C162)</f>
         <v>1</v>
       </c>
       <c r="G162" s="6">
-        <f>LEN(C162)</f>
+        <f t="shared" ref="G162:G193" si="16">LEN(C162)</f>
         <v>23</v>
       </c>
       <c r="H162" s="6">
-        <f>LEN(E162)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H162:H193" si="17">LEN(E162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B163" t="s">
         <v>798</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F163" s="6">
-        <f>COUNTIF($C$2:$C$538,C163)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G163" s="6">
-        <f>LEN(C163)</f>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="H163" s="6">
-        <f>LEN(E163)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B164" t="s">
         <v>798</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F164" s="6">
-        <f>COUNTIF($C$2:$C$538,C164)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G164" s="6">
-        <f>LEN(C164)</f>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="H164" s="6">
-        <f>LEN(E164)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>635</v>
       </c>
@@ -13964,19 +13962,19 @@
         <v>637</v>
       </c>
       <c r="F165" s="6">
-        <f>COUNTIF($C$2:$C$538,C165)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G165" s="6">
-        <f>LEN(C165)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="H165" s="6">
-        <f>LEN(E165)</f>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>635</v>
       </c>
@@ -13990,19 +13988,19 @@
         <v>639</v>
       </c>
       <c r="F166" s="6">
-        <f>COUNTIF($C$2:$C$538,C166)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G166" s="6">
-        <f>LEN(C166)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="H166" s="6">
-        <f>LEN(E166)</f>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>635</v>
       </c>
@@ -14016,19 +14014,19 @@
         <v>641</v>
       </c>
       <c r="F167" s="6">
-        <f>COUNTIF($C$2:$C$538,C167)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G167" s="6">
-        <f>LEN(C167)</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="H167" s="6">
-        <f>LEN(E167)</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>635</v>
       </c>
@@ -14042,19 +14040,19 @@
         <v>643</v>
       </c>
       <c r="F168" s="6">
-        <f>COUNTIF($C$2:$C$538,C168)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G168" s="6">
-        <f>LEN(C168)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="H168" s="6">
-        <f>LEN(E168)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>635</v>
       </c>
@@ -14068,19 +14066,19 @@
         <v>822</v>
       </c>
       <c r="F169" s="6">
-        <f>COUNTIF($C$2:$C$538,C169)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G169" s="6">
-        <f>LEN(C169)</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="H169" s="6">
-        <f>LEN(E169)</f>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>635</v>
       </c>
@@ -14094,19 +14092,19 @@
         <v>645</v>
       </c>
       <c r="F170" s="6">
-        <f>COUNTIF($C$2:$C$538,C170)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G170" s="6">
-        <f>LEN(C170)</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="H170" s="6">
-        <f>LEN(E170)</f>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>635</v>
       </c>
@@ -14120,19 +14118,19 @@
         <v>818</v>
       </c>
       <c r="F171" s="6">
-        <f>COUNTIF($C$2:$C$538,C171)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G171" s="6">
-        <f>LEN(C171)</f>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="H171" s="6">
-        <f>LEN(E171)</f>
+        <f t="shared" si="17"/>
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>635</v>
       </c>
@@ -14146,19 +14144,19 @@
         <v>820</v>
       </c>
       <c r="F172" s="6">
-        <f>COUNTIF($C$2:$C$538,C172)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G172" s="6">
-        <f>LEN(C172)</f>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="H172" s="6">
-        <f>LEN(E172)</f>
+        <f t="shared" si="17"/>
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>635</v>
       </c>
@@ -14172,19 +14170,19 @@
         <v>648</v>
       </c>
       <c r="F173" s="6">
-        <f>COUNTIF($C$2:$C$538,C173)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G173" s="6">
-        <f>LEN(C173)</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="H173" s="6">
-        <f>LEN(E173)</f>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>635</v>
       </c>
@@ -14198,19 +14196,19 @@
         <v>650</v>
       </c>
       <c r="F174" s="6">
-        <f>COUNTIF($C$2:$C$538,C174)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G174" s="6">
-        <f>LEN(C174)</f>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="H174" s="6">
-        <f>LEN(E174)</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>635</v>
       </c>
@@ -14224,19 +14222,19 @@
         <v>652</v>
       </c>
       <c r="F175" s="6">
-        <f>COUNTIF($C$2:$C$538,C175)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G175" s="6">
-        <f>LEN(C175)</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="H175" s="6">
-        <f>LEN(E175)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>635</v>
       </c>
@@ -14250,19 +14248,19 @@
         <v>654</v>
       </c>
       <c r="F176" s="6">
-        <f>COUNTIF($C$2:$C$538,C176)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G176" s="6">
-        <f>LEN(C176)</f>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="H176" s="6">
-        <f>LEN(E176)</f>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>635</v>
       </c>
@@ -14276,19 +14274,19 @@
         <v>656</v>
       </c>
       <c r="F177" s="6">
-        <f>COUNTIF($C$2:$C$538,C177)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G177" s="6">
-        <f>LEN(C177)</f>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="H177" s="6">
-        <f>LEN(E177)</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>635</v>
       </c>
@@ -14302,19 +14300,19 @@
         <v>817</v>
       </c>
       <c r="F178" s="6">
-        <f>COUNTIF($C$2:$C$538,C178)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G178" s="6">
-        <f>LEN(C178)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="H178" s="6">
-        <f>LEN(E178)</f>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>635</v>
       </c>
@@ -14328,140 +14326,140 @@
         <v>754</v>
       </c>
       <c r="F179" s="6">
-        <f>COUNTIF($C$2:$C$538,C179)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G179" s="6">
-        <f>LEN(C179)</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="H179" s="6">
-        <f>LEN(E179)</f>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B180" t="s">
         <v>798</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D180" s="6">
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F180" s="6">
-        <f>COUNTIF($C$2:$C$538,C180)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G180" s="6">
-        <f>LEN(C180)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="H180" s="6">
-        <f>LEN(E180)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B181" t="s">
         <v>798</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D181" s="6">
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F181" s="6">
-        <f>COUNTIF($C$2:$C$538,C181)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G181" s="6">
-        <f>LEN(C181)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="H181" s="6">
-        <f>LEN(E181)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B182" t="s">
         <v>798</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D182" s="6">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F182" s="6">
-        <f>COUNTIF($C$2:$C$538,C182)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G182" s="6">
-        <f>LEN(C182)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="H182" s="6">
-        <f>LEN(E182)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B183" t="s">
         <v>798</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D183" s="6">
         <v>4</v>
       </c>
       <c r="E183" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F183" s="6">
-        <f>COUNTIF($C$2:$C$538,C183)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G183" s="6">
-        <f>LEN(C183)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="H183" s="6">
-        <f>LEN(E183)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>550</v>
       </c>
       <c r="B184" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>551</v>
@@ -14470,24 +14468,24 @@
         <v>545</v>
       </c>
       <c r="F184" s="6">
-        <f>COUNTIF($C$2:$C$538,C184)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G184" s="6">
-        <f>LEN(C184)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="H184" s="6">
-        <f>LEN(E184)</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>550</v>
       </c>
       <c r="B185" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>552</v>
@@ -14496,24 +14494,24 @@
         <v>553</v>
       </c>
       <c r="F185" s="6">
-        <f>COUNTIF($C$2:$C$538,C185)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G185" s="6">
-        <f>LEN(C185)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H185" s="6">
-        <f>LEN(E185)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>550</v>
       </c>
       <c r="B186" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>554</v>
@@ -14522,24 +14520,24 @@
         <v>555</v>
       </c>
       <c r="F186" s="6">
-        <f>COUNTIF($C$2:$C$538,C186)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G186" s="6">
-        <f>LEN(C186)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="H186" s="6">
-        <f>LEN(E186)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>550</v>
       </c>
       <c r="B187" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>556</v>
@@ -14548,24 +14546,24 @@
         <v>557</v>
       </c>
       <c r="F187" s="6">
-        <f>COUNTIF($C$2:$C$538,C187)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G187" s="6">
-        <f>LEN(C187)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="H187" s="6">
-        <f>LEN(E187)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>550</v>
       </c>
       <c r="B188" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>558</v>
@@ -14574,24 +14572,24 @@
         <v>559</v>
       </c>
       <c r="F188" s="6">
-        <f>COUNTIF($C$2:$C$538,C188)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G188" s="6">
-        <f>LEN(C188)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="H188" s="6">
-        <f>LEN(E188)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>550</v>
       </c>
       <c r="B189" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>435</v>
@@ -14600,24 +14598,24 @@
         <v>560</v>
       </c>
       <c r="F189" s="6">
-        <f>COUNTIF($C$2:$C$538,C189)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G189" s="6">
-        <f>LEN(C189)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H189" s="6">
-        <f>LEN(E189)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>537</v>
       </c>
       <c r="B190" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>538</v>
@@ -14626,24 +14624,24 @@
         <v>539</v>
       </c>
       <c r="F190" s="6">
-        <f>COUNTIF($C$2:$C$538,C190)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G190" s="6">
-        <f>LEN(C190)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H190" s="6">
-        <f>LEN(E190)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>537</v>
       </c>
       <c r="B191" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>540</v>
@@ -14652,24 +14650,24 @@
         <v>541</v>
       </c>
       <c r="F191" s="6">
-        <f>COUNTIF($C$2:$C$538,C191)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G191" s="6">
-        <f>LEN(C191)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="H191" s="6">
-        <f>LEN(E191)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>537</v>
       </c>
       <c r="B192" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>542</v>
@@ -14678,24 +14676,24 @@
         <v>543</v>
       </c>
       <c r="F192" s="6">
-        <f>COUNTIF($C$2:$C$538,C192)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G192" s="6">
-        <f>LEN(C192)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="H192" s="6">
-        <f>LEN(E192)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>537</v>
       </c>
       <c r="B193" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>544</v>
@@ -14704,24 +14702,24 @@
         <v>545</v>
       </c>
       <c r="F193" s="6">
-        <f>COUNTIF($C$2:$C$538,C193)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G193" s="6">
-        <f>LEN(C193)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="H193" s="6">
-        <f>LEN(E193)</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>537</v>
       </c>
       <c r="B194" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>546</v>
@@ -14730,24 +14728,24 @@
         <v>547</v>
       </c>
       <c r="F194" s="6">
-        <f>COUNTIF($C$2:$C$538,C194)</f>
+        <f t="shared" ref="F194:F199" si="18">COUNTIF($C$2:$C$538,C194)</f>
         <v>1</v>
       </c>
       <c r="G194" s="6">
-        <f>LEN(C194)</f>
+        <f t="shared" ref="G194:G199" si="19">LEN(C194)</f>
         <v>5</v>
       </c>
       <c r="H194" s="6">
-        <f>LEN(E194)</f>
+        <f t="shared" ref="H194:H199" si="20">LEN(E194)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>537</v>
       </c>
       <c r="B195" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>548</v>
@@ -14756,24 +14754,24 @@
         <v>549</v>
       </c>
       <c r="F195" s="6">
-        <f>COUNTIF($C$2:$C$538,C195)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G195" s="6">
-        <f>LEN(C195)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="H195" s="6">
-        <f>LEN(E195)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>712</v>
       </c>
       <c r="B196" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>713</v>
@@ -14782,24 +14780,24 @@
         <v>714</v>
       </c>
       <c r="F196" s="6">
-        <f>COUNTIF($C$2:$C$538,C196)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G196" s="6">
-        <f>LEN(C196)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="H196" s="6">
-        <f>LEN(E196)</f>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>712</v>
       </c>
       <c r="B197" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>715</v>
@@ -14808,24 +14806,24 @@
         <v>716</v>
       </c>
       <c r="F197" s="6">
-        <f>COUNTIF($C$2:$C$538,C197)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G197" s="6">
-        <f>LEN(C197)</f>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="H197" s="6">
-        <f>LEN(E197)</f>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>712</v>
       </c>
       <c r="B198" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>717</v>
@@ -14834,24 +14832,24 @@
         <v>718</v>
       </c>
       <c r="F198" s="6">
-        <f>COUNTIF($C$2:$C$538,C198)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G198" s="6">
-        <f>LEN(C198)</f>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="H198" s="6">
-        <f>LEN(E198)</f>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>712</v>
       </c>
       <c r="B199" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>719</v>
@@ -14860,20 +14858,27 @@
         <v>720</v>
       </c>
       <c r="F199" s="6">
-        <f>COUNTIF($C$2:$C$538,C199)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G199" s="6">
-        <f>LEN(C199)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="H199" s="6">
-        <f>LEN(E199)</f>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H199" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}"/>
+  <autoFilter ref="A1:H199" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Data_Status"/>
+        <filter val="DataSource_Type"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H199">
     <sortCondition ref="A2:A199"/>
     <sortCondition ref="D2:D199"/>

--- a/impdata/Data/ApplicationData_v05.xlsx
+++ b/impdata/Data/ApplicationData_v05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C96C52A-268C-4D22-9CD2-1BAC64007362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AAA48F-D118-431F-9DE4-4682B466000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Dictionary" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$H$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$H$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">User!$A$1:$R$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1015">
   <si>
     <t>J.Zuegg</t>
   </si>
@@ -2509,9 +2509,6 @@
     <t>Competent</t>
   </si>
   <si>
-    <t>Able to take up extracellualr DNA</t>
-  </si>
-  <si>
     <t>QC_Status</t>
   </si>
   <si>
@@ -2539,9 +2536,6 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Algea</t>
-  </si>
-  <si>
     <t>Yeast</t>
   </si>
   <si>
@@ -2887,18 +2881,6 @@
     <t>CO-ADD [Std]</t>
   </si>
   <si>
-    <t>CO-ADD [Memb]</t>
-  </si>
-  <si>
-    <t>CO-ADD [Ext GN]</t>
-  </si>
-  <si>
-    <t>CO-ADD [Ext GP]</t>
-  </si>
-  <si>
-    <t>CO-ADD [Ext FG]</t>
-  </si>
-  <si>
     <t>Antibiogram [GN]</t>
   </si>
   <si>
@@ -2935,9 +2917,6 @@
     <t>CDC [ACI]</t>
   </si>
   <si>
-    <t>CDC [CarbNP]</t>
-  </si>
-  <si>
     <t>CDC [BIT]</t>
   </si>
   <si>
@@ -3002,6 +2981,111 @@
   </si>
   <si>
     <t>Data_Type</t>
+  </si>
+  <si>
+    <t>Algae</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Parasite</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>CO-ADD [GN Ext]</t>
+  </si>
+  <si>
+    <t>CO-ADD [GP Ext]</t>
+  </si>
+  <si>
+    <t>CO-ADD [FG Ext]</t>
+  </si>
+  <si>
+    <t>Acinetobacter [Ext]</t>
+  </si>
+  <si>
+    <t>CO-ADD Extended GN panel</t>
+  </si>
+  <si>
+    <t>CO-ADD Extended GP panel</t>
+  </si>
+  <si>
+    <t>CO-ADD Extended FG panel</t>
+  </si>
+  <si>
+    <t>Antibiogram GN panel</t>
+  </si>
+  <si>
+    <t>Antibiogram GP panel</t>
+  </si>
+  <si>
+    <t>Antibiogram FG panel</t>
+  </si>
+  <si>
+    <t>COLOP Standard panel</t>
+  </si>
+  <si>
+    <t>COLOP Extended panel</t>
+  </si>
+  <si>
+    <t>VANCO Standard panel</t>
+  </si>
+  <si>
+    <t>VANCO Extended panel</t>
+  </si>
+  <si>
+    <t>Acinetobacter Extended panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARB-X IHMA Seletion </t>
+  </si>
+  <si>
+    <t>CARB-X CIDRZ, Zambia</t>
+  </si>
+  <si>
+    <t>CARB-X NHTD, Vietnam</t>
+  </si>
+  <si>
+    <t>CARB-X Mahidol, Thailand</t>
+  </si>
+  <si>
+    <t>CARB-X NIBGE, Pakistan</t>
+  </si>
+  <si>
+    <t>CARB-X ICL, Nigeria</t>
+  </si>
+  <si>
+    <t>CARB-X NMH, Nepal</t>
+  </si>
+  <si>
+    <t>CARB-X SRTACity, Egypt</t>
+  </si>
+  <si>
+    <t>CARB-X UNIFESP, Brazil</t>
+  </si>
+  <si>
+    <t>CARB-X IDPC, Brazil</t>
+  </si>
+  <si>
+    <t>CO-ADD [GN Memb]</t>
+  </si>
+  <si>
+    <t>CDC [CarbaNP]</t>
+  </si>
+  <si>
+    <t>Able to take up extracellular DNA</t>
   </si>
 </sst>
 </file>
@@ -9597,12 +9681,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9621,13 +9704,13 @@
         <v>794</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>795</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>796</v>
@@ -9636,15 +9719,15 @@
         <v>752</v>
       </c>
       <c r="G1" s="13" t="str">
-        <f>"v "&amp;MAX(G2:G401)&amp;"/30"</f>
+        <f>"v "&amp;MAX(G2:G405)&amp;"/30"</f>
         <v>v 23/30</v>
       </c>
       <c r="H1" s="13" t="str">
-        <f>"d "&amp;MAX(H2:H401)&amp;"/140"</f>
+        <f>"d "&amp;MAX(H2:H405)&amp;"/140"</f>
         <v>d 83/140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>671</v>
       </c>
@@ -9658,7 +9741,7 @@
         <v>673</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F33" si="0">COUNTIF($C$2:$C$538,C2)</f>
+        <f t="shared" ref="F2:F33" si="0">COUNTIF($C$2:$C$542,C2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6">
@@ -9670,7 +9753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>671</v>
       </c>
@@ -9696,7 +9779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>671</v>
       </c>
@@ -9722,7 +9805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>671</v>
       </c>
@@ -9730,7 +9813,7 @@
         <v>798</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E5" t="s">
         <v>678</v>
@@ -9748,21 +9831,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B6" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>920</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>922</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
@@ -9777,21 +9860,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>917</v>
+      </c>
+      <c r="B7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>919</v>
-      </c>
-      <c r="B7" t="s">
-        <v>980</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>921</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
@@ -9806,18 +9889,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B8" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
@@ -9832,18 +9915,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>853</v>
+      </c>
+      <c r="B9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E9" t="s">
         <v>855</v>
-      </c>
-      <c r="B9" t="s">
-        <v>980</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="E9" t="s">
-        <v>857</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
@@ -9858,12 +9941,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>625</v>
       </c>
       <c r="B10" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>626</v>
@@ -9884,12 +9967,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>625</v>
       </c>
       <c r="B11" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>628</v>
@@ -9910,12 +9993,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>625</v>
       </c>
       <c r="B12" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>630</v>
@@ -9936,12 +10019,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>625</v>
       </c>
       <c r="B13" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>631</v>
@@ -9962,12 +10045,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>625</v>
       </c>
       <c r="B14" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>633</v>
@@ -9988,12 +10071,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>561</v>
       </c>
       <c r="B15" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>562</v>
@@ -10014,12 +10097,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>561</v>
       </c>
       <c r="B16" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>564</v>
@@ -10040,12 +10123,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>697</v>
       </c>
       <c r="B17" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>698</v>
@@ -10066,12 +10149,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>697</v>
       </c>
       <c r="B18" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>700</v>
@@ -10092,12 +10175,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>697</v>
       </c>
       <c r="B19" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>702</v>
@@ -10118,12 +10201,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>697</v>
       </c>
       <c r="B20" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>704</v>
@@ -10144,12 +10227,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>697</v>
       </c>
       <c r="B21" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>706</v>
@@ -10170,9 +10253,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B22" t="s">
         <v>798</v>
@@ -10196,15 +10279,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B23" t="s">
         <v>798</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E23" t="s">
         <v>659</v>
@@ -10222,18 +10305,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B24" t="s">
         <v>798</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E24" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
@@ -10248,18 +10331,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B25" t="s">
         <v>798</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E25" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
@@ -10274,18 +10357,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B26" t="s">
         <v>798</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E26" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
@@ -10300,18 +10383,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B27" t="s">
         <v>798</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E27" t="s">
         <v>901</v>
-      </c>
-      <c r="E27" t="s">
-        <v>903</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="0"/>
@@ -10326,18 +10409,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B28" t="s">
         <v>798</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="E28" t="s">
         <v>902</v>
-      </c>
-      <c r="E28" t="s">
-        <v>904</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="0"/>
@@ -10354,19 +10437,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B29" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="0"/>
@@ -10383,10 +10466,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B30" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>740</v>
@@ -10395,7 +10478,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="0"/>
@@ -10412,10 +10495,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B31" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>742</v>
@@ -10441,10 +10524,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B32" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>744</v>
@@ -10470,13 +10553,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B33" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -10496,19 +10579,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B34" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F65" si="3">COUNTIF($C$2:$C$538,C34)</f>
+        <f t="shared" ref="F34:F65" si="3">COUNTIF($C$2:$C$542,C34)</f>
         <v>1</v>
       </c>
       <c r="G34" s="6">
@@ -10522,13 +10605,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B35" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D35" s="6">
         <v>3</v>
@@ -10548,13 +10631,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B36" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D36" s="6">
         <v>4</v>
@@ -10574,13 +10657,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B37" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D37" s="6">
         <v>5</v>
@@ -10598,21 +10681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B38" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="3"/>
@@ -10627,21 +10710,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B39" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="3"/>
@@ -10656,21 +10739,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>836</v>
+      </c>
+      <c r="B40" t="s">
+        <v>973</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>838</v>
-      </c>
-      <c r="B40" t="s">
-        <v>980</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>840</v>
       </c>
       <c r="D40" s="6">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
@@ -10685,21 +10768,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B41" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D41" s="6">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="3"/>
@@ -10714,21 +10797,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B42" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D42" s="6">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="3"/>
@@ -10743,21 +10826,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B43" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D43" s="6">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="3"/>
@@ -10772,21 +10855,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B44" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D44" s="6">
         <v>11</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="3"/>
@@ -10801,18 +10884,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>909</v>
+      </c>
+      <c r="B45" t="s">
+        <v>977</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="B45" t="s">
-        <v>984</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>913</v>
-      </c>
       <c r="E45" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="3"/>
@@ -10827,18 +10910,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B46" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E46" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="3"/>
@@ -10853,7 +10936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>600</v>
       </c>
@@ -10879,7 +10962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>600</v>
       </c>
@@ -10905,7 +10988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>600</v>
       </c>
@@ -10931,7 +11014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>600</v>
       </c>
@@ -10957,7 +11040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>600</v>
       </c>
@@ -10983,7 +11066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>600</v>
       </c>
@@ -11009,12 +11092,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>746</v>
       </c>
       <c r="B53" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>815</v>
@@ -11038,12 +11121,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>746</v>
       </c>
       <c r="B54" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>812</v>
@@ -11067,12 +11150,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>746</v>
       </c>
       <c r="B55" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>813</v>
@@ -11096,12 +11179,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>746</v>
       </c>
       <c r="B56" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>814</v>
@@ -11125,21 +11208,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B57" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="3"/>
@@ -11154,21 +11237,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>856</v>
+      </c>
+      <c r="B58" t="s">
+        <v>973</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>858</v>
-      </c>
-      <c r="B58" t="s">
-        <v>980</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>860</v>
       </c>
       <c r="D58" s="6">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="3"/>
@@ -11183,21 +11266,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B59" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="3"/>
@@ -11212,15 +11295,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B60" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D60" s="6">
         <v>4</v>
@@ -11238,15 +11321,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B61" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D61" s="6">
         <v>5</v>
@@ -11264,15 +11347,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B62" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D62" s="6">
         <v>6</v>
@@ -11290,15 +11373,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B63" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D63" s="6">
         <v>1</v>
@@ -11316,15 +11399,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>866</v>
+      </c>
+      <c r="B64" t="s">
+        <v>972</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>868</v>
-      </c>
-      <c r="B64" t="s">
-        <v>979</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>870</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
@@ -11342,15 +11425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B65" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D65" s="6">
         <v>3</v>
@@ -11368,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>576</v>
       </c>
@@ -11376,7 +11459,7 @@
         <v>798</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -11385,19 +11468,19 @@
         <v>593</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F97" si="6">COUNTIF($C$2:$C$538,C66)</f>
+        <f t="shared" ref="F66:F100" si="6">COUNTIF($C$2:$C$542,C66)</f>
         <v>1</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66:G97" si="7">LEN(C66)</f>
+        <f t="shared" ref="G66:G100" si="7">LEN(C66)</f>
         <v>2</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" ref="H66:H97" si="8">LEN(E66)</f>
+        <f t="shared" ref="H66:H100" si="8">LEN(E66)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>576</v>
       </c>
@@ -11426,7 +11509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>576</v>
       </c>
@@ -11455,7 +11538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>576</v>
       </c>
@@ -11484,7 +11567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>576</v>
       </c>
@@ -11492,13 +11575,13 @@
         <v>798</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D70" s="6">
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F70" s="6">
         <f t="shared" si="6"/>
@@ -11513,7 +11596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>576</v>
       </c>
@@ -11542,7 +11625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>576</v>
       </c>
@@ -11550,13 +11633,13 @@
         <v>798</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D72" s="6">
         <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F72" s="6">
         <f t="shared" si="6"/>
@@ -11571,7 +11654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>576</v>
       </c>
@@ -11579,13 +11662,13 @@
         <v>798</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D73" s="6">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F73" s="6">
         <f t="shared" si="6"/>
@@ -11600,7 +11683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>576</v>
       </c>
@@ -11629,7 +11712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>576</v>
       </c>
@@ -11637,13 +11720,13 @@
         <v>798</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>585</v>
+        <v>982</v>
       </c>
       <c r="D75" s="6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>586</v>
+        <v>983</v>
       </c>
       <c r="F75" s="6">
         <f t="shared" si="6"/>
@@ -11655,10 +11738,10 @@
       </c>
       <c r="H75" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>576</v>
       </c>
@@ -11666,13 +11749,13 @@
         <v>798</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>771</v>
+        <v>984</v>
       </c>
       <c r="D76" s="6">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>832</v>
+        <v>986</v>
       </c>
       <c r="F76" s="6">
         <f t="shared" si="6"/>
@@ -11684,21 +11767,24 @@
       </c>
       <c r="H76" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s">
         <v>798</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>590</v>
+        <v>585</v>
+      </c>
+      <c r="D77" s="6">
+        <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F77" s="6">
         <f t="shared" si="6"/>
@@ -11706,25 +11792,28 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" s="6">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B78" t="s">
         <v>798</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>592</v>
+        <v>771</v>
+      </c>
+      <c r="D78" s="6">
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>593</v>
+        <v>980</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="6"/>
@@ -11732,40 +11821,35 @@
       </c>
       <c r="G78" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" s="6">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B79" t="s">
         <v>798</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>594</v>
+        <v>981</v>
+      </c>
+      <c r="D79" s="6">
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>595</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G79" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <v>985</v>
       </c>
       <c r="H79" s="6">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>589</v>
       </c>
@@ -11773,10 +11857,10 @@
         <v>798</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E80" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F80" s="6">
         <f t="shared" si="6"/>
@@ -11788,10 +11872,10 @@
       </c>
       <c r="H80" s="6">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>589</v>
       </c>
@@ -11799,10 +11883,10 @@
         <v>798</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E81" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="6"/>
@@ -11817,18 +11901,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B82" t="s">
         <v>798</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="E82" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="6"/>
@@ -11836,25 +11920,25 @@
       </c>
       <c r="G82" s="6">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H82" s="6">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B83" t="s">
         <v>798</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="E83" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="6"/>
@@ -11862,25 +11946,25 @@
       </c>
       <c r="G83" s="6">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H83" s="6">
         <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B84" t="s">
         <v>798</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="E84" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="6"/>
@@ -11888,14 +11972,14 @@
       </c>
       <c r="G84" s="6">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H84" s="6">
         <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>613</v>
       </c>
@@ -11903,10 +11987,10 @@
         <v>798</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E85" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" si="6"/>
@@ -11914,14 +11998,14 @@
       </c>
       <c r="G85" s="6">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H85" s="6">
         <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>613</v>
       </c>
@@ -11929,10 +12013,10 @@
         <v>798</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E86" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F86" s="6">
         <f t="shared" si="6"/>
@@ -11940,14 +12024,14 @@
       </c>
       <c r="G86" s="6">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H86" s="6">
         <f t="shared" si="8"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>613</v>
       </c>
@@ -11955,10 +12039,10 @@
         <v>798</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>811</v>
+        <v>618</v>
       </c>
       <c r="E87" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="6"/>
@@ -11966,25 +12050,25 @@
       </c>
       <c r="G87" s="6">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H87" s="6">
         <f t="shared" si="8"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="B88" t="s">
         <v>798</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="E88" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="F88" s="6">
         <f t="shared" si="6"/>
@@ -11992,25 +12076,25 @@
       </c>
       <c r="G88" s="6">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H88" s="6">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="B89" t="s">
         <v>798</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
       <c r="E89" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="F89" s="6">
         <f t="shared" si="6"/>
@@ -12018,25 +12102,25 @@
       </c>
       <c r="G89" s="6">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H89" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
       <c r="B90" t="s">
-        <v>983</v>
+        <v>798</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>709</v>
+        <v>811</v>
       </c>
       <c r="E90" t="s">
-        <v>709</v>
+        <v>624</v>
       </c>
       <c r="F90" s="6">
         <f t="shared" si="6"/>
@@ -12044,25 +12128,25 @@
       </c>
       <c r="G90" s="6">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H90" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>708</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s">
-        <v>983</v>
+        <v>798</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>710</v>
+        <v>572</v>
       </c>
       <c r="E91" t="s">
-        <v>710</v>
+        <v>573</v>
       </c>
       <c r="F91" s="6">
         <f t="shared" si="6"/>
@@ -12070,25 +12154,25 @@
       </c>
       <c r="G91" s="6">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H91" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>708</v>
+        <v>571</v>
       </c>
       <c r="B92" t="s">
-        <v>983</v>
+        <v>798</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>711</v>
+        <v>574</v>
       </c>
       <c r="E92" t="s">
-        <v>711</v>
+        <v>575</v>
       </c>
       <c r="F92" s="6">
         <f t="shared" si="6"/>
@@ -12096,25 +12180,25 @@
       </c>
       <c r="G92" s="6">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H92" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="B93" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="E93" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="F93" s="6">
         <f t="shared" si="6"/>
@@ -12122,25 +12206,25 @@
       </c>
       <c r="G93" s="6">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H93" s="6">
         <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="B94" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="E94" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="F94" s="6">
         <f t="shared" si="6"/>
@@ -12148,25 +12232,25 @@
       </c>
       <c r="G94" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H94" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="B95" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="E95" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="F95" s="6">
         <f t="shared" si="6"/>
@@ -12174,25 +12258,25 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H95" s="6">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>679</v>
       </c>
       <c r="B96" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E96" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F96" s="6">
         <f t="shared" si="6"/>
@@ -12200,25 +12284,25 @@
       </c>
       <c r="G96" s="6">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H96" s="6">
         <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>679</v>
       </c>
       <c r="B97" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E97" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F97" s="6">
         <f t="shared" si="6"/>
@@ -12226,155 +12310,155 @@
       </c>
       <c r="G97" s="6">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H97" s="6">
         <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>679</v>
+      </c>
+      <c r="B98" t="s">
+        <v>976</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="E98" t="s">
+        <v>685</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H98" s="6">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>679</v>
+      </c>
+      <c r="B99" t="s">
+        <v>976</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E99" t="s">
+        <v>687</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H99" s="6">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>679</v>
+      </c>
+      <c r="B100" t="s">
+        <v>976</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E100" t="s">
+        <v>689</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H100" s="6">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>690</v>
       </c>
-      <c r="B98" t="s">
-        <v>983</v>
-      </c>
-      <c r="C98" s="8">
+      <c r="B101" t="s">
+        <v>976</v>
+      </c>
+      <c r="C101" s="8">
         <v>24</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E101" t="s">
         <v>691</v>
       </c>
-      <c r="F98" s="6">
-        <f t="shared" ref="F98:F129" si="9">COUNTIF($C$2:$C$538,C98)</f>
-        <v>1</v>
-      </c>
-      <c r="G98" s="6">
-        <f t="shared" ref="G98:G129" si="10">LEN(C98)</f>
+      <c r="F101" s="6">
+        <f t="shared" ref="F101:F132" si="9">COUNTIF($C$2:$C$542,C101)</f>
+        <v>1</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" ref="G101:G132" si="10">LEN(C101)</f>
         <v>2</v>
       </c>
-      <c r="H98" s="6">
-        <f t="shared" ref="H98:H129" si="11">LEN(E98)</f>
+      <c r="H101" s="6">
+        <f t="shared" ref="H101:H132" si="11">LEN(E101)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>690</v>
       </c>
-      <c r="B99" t="s">
-        <v>983</v>
-      </c>
-      <c r="C99" s="8">
+      <c r="B102" t="s">
+        <v>976</v>
+      </c>
+      <c r="C102" s="8">
         <v>48</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E102" t="s">
         <v>692</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F102" s="6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G102" s="6">
         <f t="shared" si="10"/>
         <v>2</v>
-      </c>
-      <c r="H99" s="6">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>690</v>
-      </c>
-      <c r="B100" t="s">
-        <v>983</v>
-      </c>
-      <c r="C100" s="8">
-        <v>96</v>
-      </c>
-      <c r="E100" t="s">
-        <v>693</v>
-      </c>
-      <c r="F100" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G100" s="6">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H100" s="6">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>690</v>
-      </c>
-      <c r="B101" t="s">
-        <v>983</v>
-      </c>
-      <c r="C101" s="8">
-        <v>384</v>
-      </c>
-      <c r="E101" t="s">
-        <v>694</v>
-      </c>
-      <c r="F101" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G101" s="6">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H101" s="6">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>690</v>
-      </c>
-      <c r="B102" t="s">
-        <v>983</v>
-      </c>
-      <c r="C102" s="8">
-        <v>1536</v>
-      </c>
-      <c r="E102" t="s">
-        <v>695</v>
-      </c>
-      <c r="F102" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G102" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
       </c>
       <c r="H102" s="6">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>690</v>
       </c>
       <c r="B103" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C103" s="8">
-        <v>3456</v>
+        <v>96</v>
       </c>
       <c r="E103" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F103" s="6">
         <f t="shared" si="9"/>
@@ -12382,25 +12466,25 @@
       </c>
       <c r="G103" s="6">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H103" s="6">
         <f t="shared" si="11"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="B104" t="s">
-        <v>983</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>722</v>
+        <v>976</v>
+      </c>
+      <c r="C104" s="8">
+        <v>384</v>
       </c>
       <c r="E104" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="F104" s="6">
         <f t="shared" si="9"/>
@@ -12408,25 +12492,25 @@
       </c>
       <c r="G104" s="6">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H104" s="6">
         <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="B105" t="s">
-        <v>983</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>724</v>
+        <v>976</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1536</v>
       </c>
       <c r="E105" t="s">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="F105" s="6">
         <f t="shared" si="9"/>
@@ -12434,25 +12518,25 @@
       </c>
       <c r="G105" s="6">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H105" s="6">
         <f t="shared" si="11"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="B106" t="s">
-        <v>983</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>726</v>
+        <v>976</v>
+      </c>
+      <c r="C106" s="8">
+        <v>3456</v>
       </c>
       <c r="E106" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="9"/>
@@ -12460,25 +12544,25 @@
       </c>
       <c r="G106" s="6">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H106" s="6">
         <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>721</v>
       </c>
       <c r="B107" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E107" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F107" s="6">
         <f t="shared" si="9"/>
@@ -12486,28 +12570,25 @@
       </c>
       <c r="G107" s="6">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H107" s="6">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="B108" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="D108" s="6">
-        <v>1</v>
+        <v>724</v>
       </c>
       <c r="E108" t="s">
-        <v>887</v>
+        <v>725</v>
       </c>
       <c r="F108" s="6">
         <f t="shared" si="9"/>
@@ -12515,28 +12596,25 @@
       </c>
       <c r="G108" s="6">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H108" s="6">
         <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="B109" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="D109" s="6">
-        <v>2</v>
+        <v>726</v>
       </c>
       <c r="E109" t="s">
-        <v>890</v>
+        <v>727</v>
       </c>
       <c r="F109" s="6">
         <f t="shared" si="9"/>
@@ -12544,28 +12622,25 @@
       </c>
       <c r="G109" s="6">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H109" s="6">
         <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="B110" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="D110" s="6">
-        <v>4</v>
+        <v>728</v>
       </c>
       <c r="E110" t="s">
-        <v>928</v>
+        <v>729</v>
       </c>
       <c r="F110" s="6">
         <f t="shared" si="9"/>
@@ -12573,28 +12648,28 @@
       </c>
       <c r="G110" s="6">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H110" s="6">
         <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>739</v>
       </c>
       <c r="B111" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D111" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>929</v>
+        <v>885</v>
       </c>
       <c r="F111" s="6">
         <f t="shared" si="9"/>
@@ -12602,28 +12677,28 @@
       </c>
       <c r="G111" s="6">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H111" s="6">
         <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B112" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>735</v>
+        <v>883</v>
       </c>
       <c r="D112" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>736</v>
+        <v>888</v>
       </c>
       <c r="F112" s="6">
         <f t="shared" si="9"/>
@@ -12631,28 +12706,28 @@
       </c>
       <c r="G112" s="6">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H112" s="6">
         <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B113" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D113" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>738</v>
+        <v>926</v>
       </c>
       <c r="F113" s="6">
         <f t="shared" si="9"/>
@@ -12660,28 +12735,28 @@
       </c>
       <c r="G113" s="6">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H113" s="6">
         <f t="shared" si="11"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B114" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>733</v>
+        <v>884</v>
       </c>
       <c r="D114" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>734</v>
+        <v>927</v>
       </c>
       <c r="F114" s="6">
         <f t="shared" si="9"/>
@@ -12689,28 +12764,28 @@
       </c>
       <c r="G114" s="6">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H114" s="6">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>730</v>
       </c>
       <c r="B115" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D115" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="F115" s="6">
         <f t="shared" si="9"/>
@@ -12718,28 +12793,28 @@
       </c>
       <c r="G115" s="6">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H115" s="6">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>823</v>
+        <v>730</v>
       </c>
       <c r="B116" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>825</v>
+        <v>737</v>
       </c>
       <c r="D116" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>829</v>
+        <v>738</v>
       </c>
       <c r="F116" s="6">
         <f t="shared" si="9"/>
@@ -12747,28 +12822,28 @@
       </c>
       <c r="G116" s="6">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H116" s="6">
         <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>823</v>
+        <v>730</v>
       </c>
       <c r="B117" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>826</v>
+        <v>733</v>
       </c>
       <c r="D117" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>827</v>
+        <v>734</v>
       </c>
       <c r="F117" s="6">
         <f t="shared" si="9"/>
@@ -12776,28 +12851,28 @@
       </c>
       <c r="G117" s="6">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H117" s="6">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>823</v>
+        <v>730</v>
       </c>
       <c r="B118" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>824</v>
+        <v>731</v>
       </c>
       <c r="D118" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>828</v>
+        <v>732</v>
       </c>
       <c r="F118" s="6">
         <f t="shared" si="9"/>
@@ -12805,25 +12880,28 @@
       </c>
       <c r="G118" s="6">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H118" s="6">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>566</v>
+        <v>822</v>
       </c>
       <c r="B119" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>567</v>
+        <v>824</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>568</v>
+        <v>828</v>
       </c>
       <c r="F119" s="6">
         <f t="shared" si="9"/>
@@ -12831,25 +12909,28 @@
       </c>
       <c r="G119" s="6">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H119" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>566</v>
+        <v>822</v>
       </c>
       <c r="B120" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>569</v>
+        <v>825</v>
+      </c>
+      <c r="D120" s="6">
+        <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>570</v>
+        <v>826</v>
       </c>
       <c r="F120" s="6">
         <f t="shared" si="9"/>
@@ -12857,25 +12938,28 @@
       </c>
       <c r="G120" s="6">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H120" s="6">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>977</v>
+        <v>822</v>
       </c>
       <c r="B121" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>881</v>
+        <v>823</v>
+      </c>
+      <c r="D121" s="6">
+        <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>874</v>
+        <v>827</v>
       </c>
       <c r="F121" s="6">
         <f t="shared" si="9"/>
@@ -12883,25 +12967,25 @@
       </c>
       <c r="G121" s="6">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H121" s="6">
         <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>977</v>
+        <v>566</v>
       </c>
       <c r="B122" t="s">
-        <v>985</v>
+        <v>798</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>880</v>
+        <v>567</v>
       </c>
       <c r="E122" t="s">
-        <v>875</v>
+        <v>568</v>
       </c>
       <c r="F122" s="6">
         <f t="shared" si="9"/>
@@ -12913,21 +12997,21 @@
       </c>
       <c r="H122" s="6">
         <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>977</v>
+        <v>566</v>
       </c>
       <c r="B123" t="s">
-        <v>985</v>
+        <v>798</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>882</v>
+        <v>569</v>
       </c>
       <c r="E123" t="s">
-        <v>876</v>
+        <v>570</v>
       </c>
       <c r="F123" s="6">
         <f t="shared" si="9"/>
@@ -12939,21 +13023,21 @@
       </c>
       <c r="H123" s="6">
         <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B124" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E124" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F124" s="6">
         <f t="shared" si="9"/>
@@ -12968,15 +13052,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B125" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="E125" t="s">
         <v>873</v>
@@ -12991,21 +13075,21 @@
       </c>
       <c r="H125" s="6">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B126" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E126" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F126" s="6">
         <f t="shared" si="9"/>
@@ -13013,25 +13097,25 @@
       </c>
       <c r="G126" s="6">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H126" s="6">
         <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>660</v>
+        <v>970</v>
       </c>
       <c r="B127" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>661</v>
+        <v>881</v>
       </c>
       <c r="E127" t="s">
-        <v>662</v>
+        <v>875</v>
       </c>
       <c r="F127" s="6">
         <f t="shared" si="9"/>
@@ -13039,25 +13123,25 @@
       </c>
       <c r="G127" s="6">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H127" s="6">
         <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>660</v>
+        <v>970</v>
       </c>
       <c r="B128" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>663</v>
+        <v>870</v>
       </c>
       <c r="E128" t="s">
-        <v>664</v>
+        <v>871</v>
       </c>
       <c r="F128" s="6">
         <f t="shared" si="9"/>
@@ -13065,25 +13149,25 @@
       </c>
       <c r="G128" s="6">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H128" s="6">
         <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>660</v>
+        <v>970</v>
       </c>
       <c r="B129" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>665</v>
+        <v>876</v>
       </c>
       <c r="E129" t="s">
-        <v>666</v>
+        <v>877</v>
       </c>
       <c r="F129" s="6">
         <f t="shared" si="9"/>
@@ -13091,14 +13175,14 @@
       </c>
       <c r="G129" s="6">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H129" s="6">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>660</v>
       </c>
@@ -13106,25 +13190,25 @@
         <v>798</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E130" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" ref="F130:F161" si="12">COUNTIF($C$2:$C$538,C130)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G130" s="6">
-        <f t="shared" ref="G130:G161" si="13">LEN(C130)</f>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="H130" s="6">
-        <f t="shared" ref="H130:H161" si="14">LEN(E130)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>660</v>
       </c>
@@ -13132,292 +13216,322 @@
         <v>798</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="E131" t="s">
+        <v>664</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G131" s="6">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="H131" s="6">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>660</v>
+      </c>
+      <c r="B132" t="s">
+        <v>798</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E132" t="s">
+        <v>666</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="H132" s="6">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>660</v>
+      </c>
+      <c r="B133" t="s">
+        <v>798</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E133" t="s">
+        <v>668</v>
+      </c>
+      <c r="F133" s="6">
+        <f t="shared" ref="F133:F165" si="12">COUNTIF($C$2:$C$542,C133)</f>
+        <v>1</v>
+      </c>
+      <c r="G133" s="6">
+        <f t="shared" ref="G133:G165" si="13">LEN(C133)</f>
+        <v>9</v>
+      </c>
+      <c r="H133" s="6">
+        <f t="shared" ref="H133:H165" si="14">LEN(E133)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>660</v>
+      </c>
+      <c r="B134" t="s">
+        <v>798</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E134" t="s">
         <v>670</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F134" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G134" s="6">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="H131" s="6">
+      <c r="H134" s="6">
         <f t="shared" si="14"/>
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>970</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>963</v>
+      </c>
+      <c r="B135" t="s">
         <v>798</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="E132" t="s">
-        <v>938</v>
-      </c>
-      <c r="F132" s="6">
+      <c r="C135" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="E135" t="s">
+        <v>936</v>
+      </c>
+      <c r="F135" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G132" s="6">
+      <c r="G135" s="6">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="H132" s="6">
+      <c r="H135" s="6">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>970</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>963</v>
+      </c>
+      <c r="B136" t="s">
         <v>798</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="E133" t="s">
-        <v>939</v>
-      </c>
-      <c r="F133" s="6">
+      <c r="C136" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E136" t="s">
+        <v>937</v>
+      </c>
+      <c r="F136" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G136" s="6">
         <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="H133" s="6">
+        <v>16</v>
+      </c>
+      <c r="H136" s="6">
         <f t="shared" si="14"/>
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>970</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>963</v>
+      </c>
+      <c r="B137" t="s">
         <v>798</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="F134" s="6">
+      <c r="C137" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="E137" t="s">
+        <v>991</v>
+      </c>
+      <c r="F137" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G134" s="6">
+      <c r="G137" s="6">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="H134" s="6">
+      <c r="H137" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>970</v>
-      </c>
-      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>963</v>
+      </c>
+      <c r="B138" t="s">
         <v>798</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="F135" s="6">
+      <c r="C138" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="E138" t="s">
+        <v>992</v>
+      </c>
+      <c r="F138" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G135" s="6">
+      <c r="G138" s="6">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="H135" s="6">
+      <c r="H138" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>970</v>
-      </c>
-      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>963</v>
+      </c>
+      <c r="B139" t="s">
         <v>798</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>951</v>
-      </c>
-      <c r="F136" s="6">
+      <c r="C139" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="E139" t="s">
+        <v>993</v>
+      </c>
+      <c r="F139" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G139" s="6">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="H136" s="6">
+      <c r="H139" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>970</v>
-      </c>
-      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>963</v>
+      </c>
+      <c r="B140" t="s">
         <v>798</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="F137" s="6">
+      <c r="C140" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="E140" t="s">
+        <v>994</v>
+      </c>
+      <c r="F140" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G137" s="6">
+      <c r="G140" s="6">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="H137" s="6">
+      <c r="H140" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>970</v>
-      </c>
-      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>963</v>
+      </c>
+      <c r="B141" t="s">
         <v>798</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="F138" s="6">
+      <c r="C141" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="E141" t="s">
+        <v>995</v>
+      </c>
+      <c r="F141" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G138" s="6">
+      <c r="G141" s="6">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="H138" s="6">
+      <c r="H141" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>970</v>
-      </c>
-      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>963</v>
+      </c>
+      <c r="B142" t="s">
         <v>798</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="F139" s="6">
+      <c r="C142" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="E142" t="s">
+        <v>996</v>
+      </c>
+      <c r="F142" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G142" s="6">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="H139" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>970</v>
-      </c>
-      <c r="B140" t="s">
-        <v>798</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>955</v>
-      </c>
-      <c r="F140" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G140" s="6">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="H140" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>970</v>
-      </c>
-      <c r="B141" t="s">
-        <v>798</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="F141" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G141" s="6">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="H141" s="6">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>970</v>
-      </c>
-      <c r="B142" t="s">
-        <v>798</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="F142" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G142" s="6">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
       <c r="H142" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B143" t="s">
         <v>798</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>958</v>
+        <v>949</v>
+      </c>
+      <c r="E143" t="s">
+        <v>997</v>
       </c>
       <c r="F143" s="6">
         <f t="shared" si="12"/>
@@ -13429,21 +13543,21 @@
       </c>
       <c r="H143" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B144" t="s">
         <v>798</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E144" t="s">
-        <v>972</v>
+        <v>998</v>
       </c>
       <c r="F144" s="6">
         <f t="shared" si="12"/>
@@ -13451,25 +13565,25 @@
       </c>
       <c r="G144" s="6">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H144" s="6">
         <f t="shared" si="14"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B145" t="s">
         <v>798</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="E145" t="s">
-        <v>973</v>
+        <v>999</v>
       </c>
       <c r="F145" s="6">
         <f t="shared" si="12"/>
@@ -13477,25 +13591,25 @@
       </c>
       <c r="G145" s="6">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H145" s="6">
         <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B146" t="s">
         <v>798</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="E146" t="s">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="F146" s="6">
         <f t="shared" si="12"/>
@@ -13503,25 +13617,25 @@
       </c>
       <c r="G146" s="6">
         <f t="shared" si="13"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H146" s="6">
         <f t="shared" si="14"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B147" t="s">
         <v>798</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>971</v>
-      </c>
-      <c r="E147" t="s">
-        <v>975</v>
+        <v>990</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>1001</v>
       </c>
       <c r="F147" s="6">
         <f t="shared" si="12"/>
@@ -13529,129 +13643,125 @@
       </c>
       <c r="G147" s="6">
         <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>963</v>
+      </c>
+      <c r="B148" t="s">
+        <v>798</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="E148" t="s">
+        <v>965</v>
+      </c>
+      <c r="F148" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G148" s="6">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="H148" s="6">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>963</v>
+      </c>
+      <c r="B149" t="s">
+        <v>798</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="E149" t="s">
+        <v>966</v>
+      </c>
+      <c r="F149" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G149" s="6">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="H149" s="6">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>963</v>
+      </c>
+      <c r="B150" t="s">
+        <v>798</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="E150" t="s">
+        <v>967</v>
+      </c>
+      <c r="F150" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G150" s="6">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="H150" s="6">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>963</v>
+      </c>
+      <c r="B151" t="s">
+        <v>798</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="E151" t="s">
+        <v>968</v>
+      </c>
+      <c r="F151" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G151" s="6">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="H147" s="6">
+      <c r="H151" s="6">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>970</v>
-      </c>
-      <c r="B148" t="s">
-        <v>798</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="E148" t="s">
-        <v>940</v>
-      </c>
-      <c r="F148" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G148" s="6">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="H148" s="6">
-        <f t="shared" si="14"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>970</v>
-      </c>
-      <c r="B149" t="s">
-        <v>798</v>
-      </c>
-      <c r="C149" s="8" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>963</v>
-      </c>
-      <c r="E149" t="s">
-        <v>941</v>
-      </c>
-      <c r="F149" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G149" s="6">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="H149" s="6">
-        <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>970</v>
-      </c>
-      <c r="B150" t="s">
-        <v>798</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>964</v>
-      </c>
-      <c r="E150" t="s">
-        <v>942</v>
-      </c>
-      <c r="F150" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G150" s="6">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="H150" s="6">
-        <f t="shared" si="14"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>970</v>
-      </c>
-      <c r="B151" t="s">
-        <v>798</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E151" t="s">
-        <v>943</v>
-      </c>
-      <c r="F151" s="6">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G151" s="6">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="H151" s="6">
-        <f t="shared" si="14"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>970</v>
       </c>
       <c r="B152" t="s">
         <v>798</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="E152" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F152" s="6">
         <f t="shared" si="12"/>
@@ -13663,21 +13773,21 @@
       </c>
       <c r="H152" s="6">
         <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B153" t="s">
         <v>798</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E153" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F153" s="6">
         <f t="shared" si="12"/>
@@ -13689,21 +13799,21 @@
       </c>
       <c r="H153" s="6">
         <f t="shared" si="14"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B154" t="s">
         <v>798</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>968</v>
+        <v>1013</v>
       </c>
       <c r="E154" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="F154" s="6">
         <f t="shared" si="12"/>
@@ -13711,22 +13821,25 @@
       </c>
       <c r="G154" s="6">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H154" s="6">
         <f t="shared" si="14"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B155" t="s">
         <v>798</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>969</v>
+        <v>958</v>
+      </c>
+      <c r="E155" t="s">
+        <v>941</v>
       </c>
       <c r="F155" s="6">
         <f t="shared" si="12"/>
@@ -13734,22 +13847,25 @@
       </c>
       <c r="G155" s="6">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H155" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B156" t="s">
         <v>798</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>931</v>
+        <v>959</v>
+      </c>
+      <c r="E156" t="s">
+        <v>942</v>
       </c>
       <c r="F156" s="6">
         <f t="shared" si="12"/>
@@ -13757,22 +13873,25 @@
       </c>
       <c r="G156" s="6">
         <f t="shared" si="13"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H156" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B157" t="s">
         <v>798</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>930</v>
+        <v>960</v>
+      </c>
+      <c r="E157" t="s">
+        <v>943</v>
       </c>
       <c r="F157" s="6">
         <f t="shared" si="12"/>
@@ -13780,22 +13899,25 @@
       </c>
       <c r="G157" s="6">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H157" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B158" t="s">
         <v>798</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>932</v>
+        <v>961</v>
+      </c>
+      <c r="E158" t="s">
+        <v>944</v>
       </c>
       <c r="F158" s="6">
         <f t="shared" si="12"/>
@@ -13803,22 +13925,25 @@
       </c>
       <c r="G158" s="6">
         <f t="shared" si="13"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H158" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B159" t="s">
         <v>798</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>933</v>
+        <v>962</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1002</v>
       </c>
       <c r="F159" s="6">
         <f t="shared" si="12"/>
@@ -13826,22 +13951,25 @@
       </c>
       <c r="G159" s="6">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H159" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B160" t="s">
         <v>798</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>934</v>
+        <v>929</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1011</v>
       </c>
       <c r="F160" s="6">
         <f t="shared" si="12"/>
@@ -13853,18 +13981,21 @@
       </c>
       <c r="H160" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B161" t="s">
         <v>798</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>935</v>
+        <v>928</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1010</v>
       </c>
       <c r="F161" s="6">
         <f t="shared" si="12"/>
@@ -13876,700 +14007,709 @@
       </c>
       <c r="H161" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B162" t="s">
         <v>798</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>976</v>
+        <v>930</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1009</v>
       </c>
       <c r="F162" s="6">
-        <f t="shared" ref="F162:F193" si="15">COUNTIF($C$2:$C$538,C162)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G162" s="6">
-        <f t="shared" ref="G162:G193" si="16">LEN(C162)</f>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="H162" s="6">
-        <f t="shared" ref="H162:H193" si="17">LEN(E162)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B163" t="s">
         <v>798</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>936</v>
+        <v>931</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1008</v>
       </c>
       <c r="F163" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G163" s="6">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="H163" s="6">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>963</v>
+      </c>
+      <c r="B164" t="s">
+        <v>798</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F164" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G164" s="6">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="H164" s="6">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>963</v>
+      </c>
+      <c r="B165" t="s">
+        <v>798</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F165" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G165" s="6">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="H165" s="6">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>963</v>
+      </c>
+      <c r="B166" t="s">
+        <v>798</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F166" s="6">
+        <f t="shared" ref="F166:F197" si="15">COUNTIF($C$2:$C$542,C166)</f>
+        <v>1</v>
+      </c>
+      <c r="G166" s="6">
+        <f t="shared" ref="G166:G197" si="16">LEN(C166)</f>
+        <v>23</v>
+      </c>
+      <c r="H166" s="6">
+        <f t="shared" ref="H166:H197" si="17">LEN(E166)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>963</v>
+      </c>
+      <c r="B167" t="s">
+        <v>798</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F167" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G163" s="6">
+      <c r="G167" s="6">
         <f t="shared" si="16"/>
         <v>19</v>
       </c>
-      <c r="H163" s="6">
+      <c r="H167" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>970</v>
-      </c>
-      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>963</v>
+      </c>
+      <c r="B168" t="s">
         <v>798</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="F164" s="6">
+      <c r="C168" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F168" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G164" s="6">
+      <c r="G168" s="6">
         <f t="shared" si="16"/>
         <v>19</v>
       </c>
-      <c r="H164" s="6">
+      <c r="H168" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>635</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B169" t="s">
         <v>798</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C169" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E169" t="s">
         <v>637</v>
       </c>
-      <c r="F165" s="6">
+      <c r="F169" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G165" s="6">
+      <c r="G169" s="6">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="H165" s="6">
+      <c r="H169" s="6">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>635</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B170" t="s">
         <v>798</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C170" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E170" t="s">
         <v>639</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F170" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G166" s="6">
+      <c r="G170" s="6">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="H166" s="6">
+      <c r="H170" s="6">
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>635</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B171" t="s">
         <v>798</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C171" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E171" t="s">
         <v>641</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F171" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G167" s="6">
+      <c r="G171" s="6">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="H167" s="6">
+      <c r="H171" s="6">
         <f t="shared" si="17"/>
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>635</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B172" t="s">
         <v>798</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C172" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E172" t="s">
         <v>643</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F172" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G168" s="6">
+      <c r="G172" s="6">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="H168" s="6">
+      <c r="H172" s="6">
         <f t="shared" si="17"/>
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>635</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B173" t="s">
         <v>798</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C173" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="E169" t="s">
-        <v>822</v>
-      </c>
-      <c r="F169" s="6">
+      <c r="E173" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F173" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G173" s="6">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="H169" s="6">
+      <c r="H173" s="6">
         <f t="shared" si="17"/>
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>635</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B174" t="s">
         <v>798</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C174" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E174" t="s">
         <v>645</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F174" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G170" s="6">
+      <c r="G174" s="6">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="H170" s="6">
+      <c r="H174" s="6">
         <f t="shared" si="17"/>
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>635</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B175" t="s">
         <v>798</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C175" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E175" t="s">
         <v>818</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F175" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G171" s="6">
+      <c r="G175" s="6">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="H171" s="6">
+      <c r="H175" s="6">
         <f t="shared" si="17"/>
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>635</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B176" t="s">
         <v>798</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C176" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E176" t="s">
         <v>820</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F176" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G172" s="6">
+      <c r="G176" s="6">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="H172" s="6">
+      <c r="H176" s="6">
         <f t="shared" si="17"/>
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>635</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B177" t="s">
         <v>798</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C177" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E177" t="s">
         <v>648</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F177" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G177" s="6">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="H173" s="6">
+      <c r="H177" s="6">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>635</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B178" t="s">
         <v>798</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C178" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E178" t="s">
         <v>650</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F178" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G174" s="6">
+      <c r="G178" s="6">
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="H174" s="6">
+      <c r="H178" s="6">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>635</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B179" t="s">
         <v>798</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C179" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E179" t="s">
         <v>652</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F179" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G175" s="6">
+      <c r="G179" s="6">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="H175" s="6">
+      <c r="H179" s="6">
         <f t="shared" si="17"/>
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>635</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B180" t="s">
         <v>798</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C180" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E180" t="s">
         <v>654</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F180" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G176" s="6">
+      <c r="G180" s="6">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="H176" s="6">
+      <c r="H180" s="6">
         <f t="shared" si="17"/>
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>635</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B181" t="s">
         <v>798</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C181" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E181" t="s">
         <v>656</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F181" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G177" s="6">
+      <c r="G181" s="6">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="H177" s="6">
+      <c r="H181" s="6">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>635</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B182" t="s">
         <v>798</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C182" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E182" t="s">
         <v>817</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F182" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G178" s="6">
+      <c r="G182" s="6">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="H178" s="6">
+      <c r="H182" s="6">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>635</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B183" t="s">
         <v>798</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C183" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E183" t="s">
         <v>754</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F183" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G179" s="6">
+      <c r="G183" s="6">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="H179" s="6">
+      <c r="H183" s="6">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>925</v>
-      </c>
-      <c r="B180" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>923</v>
+      </c>
+      <c r="B184" t="s">
         <v>798</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="D180" s="6">
-        <v>1</v>
-      </c>
-      <c r="E180" t="s">
-        <v>918</v>
-      </c>
-      <c r="F180" s="6">
+      <c r="C184" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="D184" s="6">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>916</v>
+      </c>
+      <c r="F184" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G180" s="6">
+      <c r="G184" s="6">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="H180" s="6">
+      <c r="H184" s="6">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>925</v>
-      </c>
-      <c r="B181" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>923</v>
+      </c>
+      <c r="B185" t="s">
         <v>798</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="D181" s="6">
+      <c r="C185" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="D185" s="6">
         <v>2</v>
       </c>
-      <c r="E181" t="s">
-        <v>917</v>
-      </c>
-      <c r="F181" s="6">
+      <c r="E185" t="s">
+        <v>915</v>
+      </c>
+      <c r="F185" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G181" s="6">
+      <c r="G185" s="6">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="H181" s="6">
+      <c r="H185" s="6">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>925</v>
-      </c>
-      <c r="B182" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>923</v>
+      </c>
+      <c r="B186" t="s">
         <v>798</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="D182" s="6">
+      <c r="C186" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="D186" s="6">
         <v>3</v>
       </c>
-      <c r="E182" t="s">
-        <v>916</v>
-      </c>
-      <c r="F182" s="6">
+      <c r="E186" t="s">
+        <v>914</v>
+      </c>
+      <c r="F186" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G182" s="6">
+      <c r="G186" s="6">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="H182" s="6">
+      <c r="H186" s="6">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>925</v>
-      </c>
-      <c r="B183" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>923</v>
+      </c>
+      <c r="B187" t="s">
         <v>798</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="D183" s="6">
+      <c r="C187" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="D187" s="6">
         <v>4</v>
       </c>
-      <c r="E183" t="s">
-        <v>924</v>
-      </c>
-      <c r="F183" s="6">
+      <c r="E187" t="s">
+        <v>922</v>
+      </c>
+      <c r="F187" s="6">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G183" s="6">
+      <c r="G187" s="6">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="H183" s="6">
+      <c r="H187" s="6">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>550</v>
-      </c>
-      <c r="B184" t="s">
-        <v>982</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E184" t="s">
-        <v>545</v>
-      </c>
-      <c r="F184" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G184" s="6">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="H184" s="6">
-        <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>550</v>
-      </c>
-      <c r="B185" t="s">
-        <v>982</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="E185" t="s">
-        <v>553</v>
-      </c>
-      <c r="F185" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G185" s="6">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="H185" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>550</v>
-      </c>
-      <c r="B186" t="s">
-        <v>982</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="E186" t="s">
-        <v>555</v>
-      </c>
-      <c r="F186" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G186" s="6">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="H186" s="6">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>550</v>
-      </c>
-      <c r="B187" t="s">
-        <v>982</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="E187" t="s">
-        <v>557</v>
-      </c>
-      <c r="F187" s="6">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G187" s="6">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="H187" s="6">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>550</v>
       </c>
       <c r="B188" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E188" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F188" s="6">
         <f t="shared" si="15"/>
@@ -14581,21 +14721,21 @@
       </c>
       <c r="H188" s="6">
         <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>550</v>
       </c>
       <c r="B189" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>435</v>
+        <v>552</v>
       </c>
       <c r="E189" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F189" s="6">
         <f t="shared" si="15"/>
@@ -14607,21 +14747,21 @@
       </c>
       <c r="H189" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B190" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="E190" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="F190" s="6">
         <f t="shared" si="15"/>
@@ -14629,25 +14769,25 @@
       </c>
       <c r="G190" s="6">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190" s="6">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B191" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="E191" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="F191" s="6">
         <f t="shared" si="15"/>
@@ -14662,18 +14802,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B192" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="E192" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="F192" s="6">
         <f t="shared" si="15"/>
@@ -14688,18 +14828,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B193" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>544</v>
+        <v>435</v>
       </c>
       <c r="E193" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="F193" s="6">
         <f t="shared" si="15"/>
@@ -14707,181 +14847,278 @@
       </c>
       <c r="G193" s="6">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H193" s="6">
         <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>537</v>
       </c>
       <c r="B194" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E194" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F194" s="6">
-        <f t="shared" ref="F194:F199" si="18">COUNTIF($C$2:$C$538,C194)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G194" s="6">
-        <f t="shared" ref="G194:G199" si="19">LEN(C194)</f>
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H194" s="6">
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="H194" s="6">
-        <f t="shared" ref="H194:H199" si="20">LEN(E194)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>537</v>
       </c>
       <c r="B195" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C195" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E195" t="s">
+        <v>541</v>
+      </c>
+      <c r="F195" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G195" s="6">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H195" s="6">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>537</v>
+      </c>
+      <c r="B196" t="s">
+        <v>975</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E196" t="s">
+        <v>543</v>
+      </c>
+      <c r="F196" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G196" s="6">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H196" s="6">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>537</v>
+      </c>
+      <c r="B197" t="s">
+        <v>975</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E197" t="s">
+        <v>545</v>
+      </c>
+      <c r="F197" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G197" s="6">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="H197" s="6">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>537</v>
+      </c>
+      <c r="B198" t="s">
+        <v>975</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E198" t="s">
+        <v>547</v>
+      </c>
+      <c r="F198" s="6">
+        <f t="shared" ref="F198:F203" si="18">COUNTIF($C$2:$C$542,C198)</f>
+        <v>1</v>
+      </c>
+      <c r="G198" s="6">
+        <f t="shared" ref="G198:G203" si="19">LEN(C198)</f>
+        <v>5</v>
+      </c>
+      <c r="H198" s="6">
+        <f t="shared" ref="H198:H203" si="20">LEN(E198)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>537</v>
+      </c>
+      <c r="B199" t="s">
+        <v>975</v>
+      </c>
+      <c r="C199" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E199" t="s">
         <v>549</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F199" s="6">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G195" s="6">
+      <c r="G199" s="6">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="H195" s="6">
+      <c r="H199" s="6">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>712</v>
       </c>
-      <c r="B196" t="s">
-        <v>983</v>
-      </c>
-      <c r="C196" s="8" t="s">
+      <c r="B200" t="s">
+        <v>976</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E200" t="s">
         <v>714</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F200" s="6">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G196" s="6">
+      <c r="G200" s="6">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="H196" s="6">
+      <c r="H200" s="6">
         <f t="shared" si="20"/>
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>712</v>
       </c>
-      <c r="B197" t="s">
-        <v>983</v>
-      </c>
-      <c r="C197" s="8" t="s">
+      <c r="B201" t="s">
+        <v>976</v>
+      </c>
+      <c r="C201" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E201" t="s">
         <v>716</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F201" s="6">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G197" s="6">
+      <c r="G201" s="6">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="H197" s="6">
+      <c r="H201" s="6">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>712</v>
       </c>
-      <c r="B198" t="s">
-        <v>983</v>
-      </c>
-      <c r="C198" s="8" t="s">
+      <c r="B202" t="s">
+        <v>976</v>
+      </c>
+      <c r="C202" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E202" t="s">
         <v>718</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F202" s="6">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G198" s="6">
+      <c r="G202" s="6">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="H198" s="6">
+      <c r="H202" s="6">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>712</v>
       </c>
-      <c r="B199" t="s">
-        <v>983</v>
-      </c>
-      <c r="C199" s="8" t="s">
+      <c r="B203" t="s">
+        <v>976</v>
+      </c>
+      <c r="C203" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E203" t="s">
         <v>720</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F203" s="6">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G199" s="6">
+      <c r="G203" s="6">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="H199" s="6">
+      <c r="H203" s="6">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H199" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Data_Status"/>
-        <filter val="DataSource_Type"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H199">
-    <sortCondition ref="A2:A199"/>
-    <sortCondition ref="D2:D199"/>
+  <autoFilter ref="A1:H203" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H203">
+    <sortCondition ref="A2:A203"/>
+    <sortCondition ref="D2:D203"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/impdata/Data/ApplicationData_v05.xlsx
+++ b/impdata/Data/ApplicationData_v05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AAA48F-D118-431F-9DE4-4682B466000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA73AADA-7B3B-427F-A178-FB59702B2A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Dictionary" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$H$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$H$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">User!$A$1:$R$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1019">
   <si>
     <t>J.Zuegg</t>
   </si>
@@ -3086,13 +3086,25 @@
   </si>
   <si>
     <t>Able to take up extracellular DNA</t>
+  </si>
+  <si>
+    <t>Screening</t>
+  </si>
+  <si>
+    <t>Screening conditions</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Vendor's recommandation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3127,6 +3139,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3176,7 +3195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3207,6 +3226,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9681,11 +9703,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9719,11 +9741,11 @@
         <v>752</v>
       </c>
       <c r="G1" s="13" t="str">
-        <f>"v "&amp;MAX(G2:G405)&amp;"/30"</f>
+        <f>"v "&amp;MAX(G2:G407)&amp;"/30"</f>
         <v>v 23/30</v>
       </c>
       <c r="H1" s="13" t="str">
-        <f>"d "&amp;MAX(H2:H405)&amp;"/140"</f>
+        <f>"d "&amp;MAX(H2:H407)&amp;"/140"</f>
         <v>d 83/140</v>
       </c>
     </row>
@@ -9741,15 +9763,15 @@
         <v>673</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F33" si="0">COUNTIF($C$2:$C$542,C2)</f>
+        <f t="shared" ref="F2:F35" si="0">COUNTIF($C$2:$C$544,C2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G33" si="1">LEN(C2)</f>
+        <f t="shared" ref="G2:G35" si="1">LEN(C2)</f>
         <v>3</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H33" si="2">LEN(E2)</f>
+        <f t="shared" ref="H2:H35" si="2">LEN(E2)</f>
         <v>41</v>
       </c>
     </row>
@@ -10287,48 +10309,48 @@
         <v>798</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" ref="F23" si="3">COUNTIF($C$2:$C$544,C23)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" ref="G23" si="4">LEN(C23)</f>
+        <v>6</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ref="H23" si="5">LEN(E23)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>906</v>
+      </c>
+      <c r="B24" t="s">
+        <v>798</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>659</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>895</v>
-      </c>
-      <c r="B24" t="s">
-        <v>798</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="E24" t="s">
-        <v>903</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="2"/>
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -10339,10 +10361,10 @@
         <v>798</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E25" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
@@ -10354,7 +10376,7 @@
       </c>
       <c r="H25" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -10365,10 +10387,10 @@
         <v>798</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E26" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
@@ -10376,11 +10398,11 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -10391,10 +10413,10 @@
         <v>798</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E27" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="0"/>
@@ -10402,11 +10424,11 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -10417,80 +10439,74 @@
         <v>798</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>900</v>
+        <v>1015</v>
       </c>
       <c r="E28" t="s">
-        <v>902</v>
+        <v>1016</v>
       </c>
       <c r="F28" s="6">
+        <f t="shared" ref="F28" si="6">COUNTIF($C$2:$C$544,C28)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" ref="G28" si="7">LEN(C28)</f>
+        <v>9</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" ref="H28" si="8">LEN(E28)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>895</v>
+      </c>
+      <c r="B29" t="s">
+        <v>798</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E29" t="s">
+        <v>901</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>895</v>
+      </c>
+      <c r="B30" t="s">
+        <v>798</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="E30" t="s">
+        <v>902</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H30" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>925</v>
-      </c>
-      <c r="B29" t="s">
-        <v>978</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>889</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>925</v>
-      </c>
-      <c r="B30" t="s">
-        <v>978</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>887</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="2"/>
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -10501,13 +10517,13 @@
         <v>978</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>742</v>
+        <v>886</v>
       </c>
       <c r="D31" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>743</v>
+        <v>889</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="0"/>
@@ -10519,7 +10535,7 @@
       </c>
       <c r="H31" s="6">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -10530,13 +10546,13 @@
         <v>978</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D32" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>745</v>
+        <v>887</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="0"/>
@@ -10544,25 +10560,28 @@
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>979</v>
+        <v>925</v>
       </c>
       <c r="B33" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>864</v>
+        <v>742</v>
       </c>
       <c r="D33" s="6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>743</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="0"/>
@@ -10570,37 +10589,40 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>979</v>
+        <v>925</v>
       </c>
       <c r="B34" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>893</v>
+        <v>744</v>
       </c>
       <c r="D34" s="6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>745</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F65" si="3">COUNTIF($C$2:$C$542,C34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G65" si="4">LEN(C34)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H65" si="5">LEN(E34)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -10611,21 +10633,21 @@
         <v>972</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D35" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10637,21 +10659,21 @@
         <v>972</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="D36" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F36:F67" si="9">COUNTIF($C$2:$C$544,C36)</f>
         <v>1</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G36:G67" si="10">LEN(C36)</f>
         <v>11</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H36:H67" si="11">LEN(E36)</f>
         <v>0</v>
       </c>
     </row>
@@ -10663,80 +10685,74 @@
         <v>972</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D37" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>836</v>
+        <v>979</v>
       </c>
       <c r="B38" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>841</v>
+        <v>4</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>836</v>
+        <v>979</v>
       </c>
       <c r="B39" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="D39" s="6">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>850</v>
+        <v>5</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -10747,25 +10763,25 @@
         <v>973</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D40" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -10776,25 +10792,25 @@
         <v>973</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="D41" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -10805,25 +10821,25 @@
         <v>973</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D42" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="5"/>
-        <v>29</v>
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -10834,25 +10850,25 @@
         <v>973</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D43" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -10863,129 +10879,135 @@
         <v>973</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D44" s="6">
-        <v>11</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>846</v>
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>843</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="5"/>
-        <v>48</v>
+        <f t="shared" si="11"/>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>909</v>
+        <v>836</v>
       </c>
       <c r="B45" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>911</v>
+        <v>845</v>
+      </c>
+      <c r="D45" s="6">
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>912</v>
+        <v>847</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>909</v>
+        <v>836</v>
       </c>
       <c r="B46" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="E46" t="s">
-        <v>913</v>
+        <v>848</v>
+      </c>
+      <c r="D46" s="6">
+        <v>11</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>846</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>600</v>
+        <v>909</v>
       </c>
       <c r="B47" t="s">
-        <v>798</v>
+        <v>977</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>601</v>
+        <v>911</v>
       </c>
       <c r="E47" t="s">
-        <v>602</v>
+        <v>912</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>600</v>
+        <v>909</v>
       </c>
       <c r="B48" t="s">
-        <v>798</v>
+        <v>977</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>603</v>
+        <v>910</v>
       </c>
       <c r="E48" t="s">
-        <v>604</v>
+        <v>913</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -10996,22 +11018,22 @@
         <v>798</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E49" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -11022,22 +11044,22 @@
         <v>798</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E50" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -11048,22 +11070,22 @@
         <v>798</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E51" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -11074,80 +11096,74 @@
         <v>798</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E52" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>746</v>
+        <v>600</v>
       </c>
       <c r="B53" t="s">
-        <v>972</v>
+        <v>798</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
+        <v>609</v>
       </c>
       <c r="E53" t="s">
-        <v>751</v>
+        <v>610</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="11"/>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>746</v>
+        <v>600</v>
       </c>
       <c r="B54" t="s">
-        <v>972</v>
+        <v>798</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="D54" s="6">
-        <v>2</v>
+        <v>611</v>
       </c>
       <c r="E54" t="s">
-        <v>750</v>
+        <v>612</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -11158,25 +11174,25 @@
         <v>972</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D55" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="5"/>
-        <v>34</v>
+        <f t="shared" si="11"/>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -11187,83 +11203,83 @@
         <v>972</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D56" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="5"/>
-        <v>31</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>856</v>
+        <v>746</v>
       </c>
       <c r="B57" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>857</v>
+        <v>813</v>
       </c>
       <c r="D57" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>890</v>
+        <v>748</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>856</v>
+        <v>746</v>
       </c>
       <c r="B58" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>858</v>
+        <v>814</v>
       </c>
       <c r="D58" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>891</v>
+        <v>749</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -11274,25 +11290,25 @@
         <v>973</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>890</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="E59" t="s">
-        <v>892</v>
-      </c>
-      <c r="F59" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G59" s="6">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
       <c r="H59" s="6">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -11303,22 +11319,25 @@
         <v>973</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D60" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>891</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -11329,22 +11348,25 @@
         <v>973</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D61" s="6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>892</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -11355,73 +11377,73 @@
         <v>973</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>908</v>
+        <v>861</v>
       </c>
       <c r="D62" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B63" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D63" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B64" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="D64" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11433,80 +11455,74 @@
         <v>972</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D65" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>576</v>
+        <v>866</v>
       </c>
       <c r="B66" t="s">
-        <v>798</v>
+        <v>972</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="D66" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>593</v>
+        <v>2</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F100" si="6">COUNTIF($C$2:$C$542,C66)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66:G100" si="7">LEN(C66)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>14</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" ref="H66:H100" si="8">LEN(E66)</f>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>576</v>
+        <v>866</v>
       </c>
       <c r="B67" t="s">
-        <v>798</v>
+        <v>972</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>577</v>
+        <v>869</v>
       </c>
       <c r="D67" s="6">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s">
-        <v>578</v>
+        <v>3</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -11517,25 +11533,25 @@
         <v>798</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>579</v>
+        <v>830</v>
       </c>
       <c r="D68" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F68:F102" si="12">COUNTIF($C$2:$C$544,C68)</f>
         <v>1</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G68:G102" si="13">LEN(C68)</f>
         <v>2</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" ref="H68:H102" si="14">LEN(E68)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -11546,25 +11562,25 @@
         <v>798</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D69" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -11575,25 +11591,25 @@
         <v>798</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>835</v>
+        <v>579</v>
       </c>
       <c r="D70" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>829</v>
+        <v>580</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f t="shared" si="14"/>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -11604,25 +11620,25 @@
         <v>798</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D71" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -11633,25 +11649,25 @@
         <v>798</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D72" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -11662,25 +11678,25 @@
         <v>798</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>834</v>
+        <v>583</v>
       </c>
       <c r="D73" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>832</v>
+        <v>584</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -11691,25 +11707,25 @@
         <v>798</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>587</v>
+        <v>833</v>
       </c>
       <c r="D74" s="6">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>588</v>
+        <v>831</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -11720,25 +11736,25 @@
         <v>798</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>982</v>
+        <v>834</v>
       </c>
       <c r="D75" s="6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>983</v>
+        <v>832</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -11749,25 +11765,25 @@
         <v>798</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>984</v>
+        <v>587</v>
       </c>
       <c r="D76" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>986</v>
+        <v>588</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -11778,25 +11794,25 @@
         <v>798</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>585</v>
+        <v>982</v>
       </c>
       <c r="D77" s="6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>586</v>
+        <v>983</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -11807,25 +11823,25 @@
         <v>798</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>771</v>
+        <v>984</v>
       </c>
       <c r="D78" s="6">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -11836,68 +11852,74 @@
         <v>798</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>981</v>
+        <v>585</v>
       </c>
       <c r="D79" s="6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>985</v>
+        <v>586</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G79" s="6">
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B80" t="s">
         <v>798</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>590</v>
+        <v>771</v>
+      </c>
+      <c r="D80" s="6">
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>591</v>
+        <v>980</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B81" t="s">
         <v>798</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>592</v>
+        <v>981</v>
+      </c>
+      <c r="D81" s="6">
+        <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>593</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G81" s="6">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <v>985</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
@@ -11909,21 +11931,21 @@
         <v>798</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E82" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
     </row>
@@ -11935,22 +11957,22 @@
         <v>798</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E83" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -11961,74 +11983,74 @@
         <v>798</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E84" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B85" t="s">
         <v>798</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="E85" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B86" t="s">
         <v>798</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="E86" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="7"/>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="8"/>
-        <v>57</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -12039,22 +12061,22 @@
         <v>798</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E87" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="8"/>
-        <v>26</v>
+        <f t="shared" si="14"/>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -12065,22 +12087,22 @@
         <v>798</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E88" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f t="shared" si="13"/>
+        <v>23</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="8"/>
-        <v>63</v>
+        <f t="shared" si="14"/>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -12091,22 +12113,22 @@
         <v>798</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E89" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="8"/>
-        <v>67</v>
+        <f t="shared" si="14"/>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -12117,126 +12139,126 @@
         <v>798</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>811</v>
+        <v>620</v>
       </c>
       <c r="E90" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="7"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="8"/>
-        <v>65</v>
+        <f t="shared" si="14"/>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="B91" t="s">
         <v>798</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>572</v>
+        <v>622</v>
       </c>
       <c r="E91" t="s">
-        <v>573</v>
+        <v>623</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="B92" t="s">
         <v>798</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>574</v>
+        <v>811</v>
       </c>
       <c r="E92" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>708</v>
+        <v>571</v>
       </c>
       <c r="B93" t="s">
-        <v>976</v>
+        <v>798</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>709</v>
+        <v>572</v>
       </c>
       <c r="E93" t="s">
-        <v>709</v>
+        <v>573</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>708</v>
+        <v>571</v>
       </c>
       <c r="B94" t="s">
-        <v>976</v>
+        <v>798</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>710</v>
+        <v>574</v>
       </c>
       <c r="E94" t="s">
-        <v>710</v>
+        <v>575</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -12247,74 +12269,74 @@
         <v>976</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E95" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="B96" t="s">
         <v>976</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="E96" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="8"/>
-        <v>38</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="B97" t="s">
         <v>976</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="E97" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -12325,22 +12347,22 @@
         <v>976</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E98" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="H98" s="6">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -12351,22 +12373,22 @@
         <v>976</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E99" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="H99" s="6">
-        <f t="shared" si="8"/>
-        <v>33</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -12377,73 +12399,73 @@
         <v>976</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E100" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G100" s="6">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="H100" s="6">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B101" t="s">
         <v>976</v>
       </c>
-      <c r="C101" s="8">
-        <v>24</v>
+      <c r="C101" s="8" t="s">
+        <v>686</v>
       </c>
       <c r="E101" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" ref="F101:F132" si="9">COUNTIF($C$2:$C$542,C101)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" ref="G101:G132" si="10">LEN(C101)</f>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="H101" s="6">
-        <f t="shared" ref="H101:H132" si="11">LEN(E101)</f>
-        <v>35</v>
+        <f t="shared" si="14"/>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B102" t="s">
         <v>976</v>
       </c>
-      <c r="C102" s="8">
-        <v>48</v>
+      <c r="C102" s="8" t="s">
+        <v>688</v>
       </c>
       <c r="E102" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="H102" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
     </row>
@@ -12455,21 +12477,21 @@
         <v>976</v>
       </c>
       <c r="C103" s="8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F103:F134" si="15">COUNTIF($C$2:$C$544,C103)</f>
         <v>1</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G103:G134" si="16">LEN(C103)</f>
         <v>2</v>
       </c>
       <c r="H103" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H103:H134" si="17">LEN(E103)</f>
         <v>35</v>
       </c>
     </row>
@@ -12481,22 +12503,22 @@
         <v>976</v>
       </c>
       <c r="C104" s="8">
-        <v>384</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="H104" s="6">
-        <f t="shared" si="11"/>
-        <v>36</v>
+        <f t="shared" si="17"/>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -12507,21 +12529,21 @@
         <v>976</v>
       </c>
       <c r="C105" s="8">
-        <v>1536</v>
+        <v>96</v>
       </c>
       <c r="E105" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="H105" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
     </row>
@@ -12533,74 +12555,74 @@
         <v>976</v>
       </c>
       <c r="C106" s="8">
-        <v>3456</v>
+        <v>384</v>
       </c>
       <c r="E106" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="H106" s="6">
-        <f t="shared" si="11"/>
-        <v>34</v>
+        <f t="shared" si="17"/>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="B107" t="s">
         <v>976</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>722</v>
+      <c r="C107" s="8">
+        <v>1536</v>
       </c>
       <c r="E107" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="H107" s="6">
-        <f t="shared" si="11"/>
-        <v>27</v>
+        <f t="shared" si="17"/>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="B108" t="s">
         <v>976</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>724</v>
+      <c r="C108" s="8">
+        <v>3456</v>
       </c>
       <c r="E108" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="H108" s="6">
-        <f t="shared" si="11"/>
-        <v>52</v>
+        <f t="shared" si="17"/>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -12611,22 +12633,22 @@
         <v>976</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E109" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="H109" s="6">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <f t="shared" si="17"/>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -12637,80 +12659,74 @@
         <v>976</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E110" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="H110" s="6">
-        <f t="shared" si="11"/>
-        <v>30</v>
+        <f t="shared" si="17"/>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="B111" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1</v>
+        <v>726</v>
       </c>
       <c r="E111" t="s">
-        <v>885</v>
+        <v>727</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G111" s="6">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="H111" s="6">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <f t="shared" si="17"/>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="B112" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="D112" s="6">
-        <v>2</v>
+        <v>728</v>
       </c>
       <c r="E112" t="s">
-        <v>888</v>
+        <v>729</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G112" s="6">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="H112" s="6">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="17"/>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -12721,25 +12737,25 @@
         <v>978</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>741</v>
+        <v>882</v>
       </c>
       <c r="D113" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>926</v>
+        <v>885</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="H113" s="6">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -12750,83 +12766,83 @@
         <v>978</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D114" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="H114" s="6">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B115" t="s">
         <v>978</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D115" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>736</v>
+        <v>926</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="H115" s="6">
-        <f t="shared" si="11"/>
-        <v>25</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B116" t="s">
         <v>978</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>737</v>
+        <v>884</v>
       </c>
       <c r="D116" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>738</v>
+        <v>927</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G116" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="H116" s="6">
-        <f t="shared" si="11"/>
-        <v>41</v>
+        <f t="shared" si="17"/>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -12837,25 +12853,25 @@
         <v>978</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D117" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G117" s="6">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="H117" s="6">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -12866,83 +12882,83 @@
         <v>978</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D118" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="H118" s="6">
-        <f t="shared" si="11"/>
-        <v>25</v>
+        <f t="shared" si="17"/>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>822</v>
+        <v>730</v>
       </c>
       <c r="B119" t="s">
         <v>978</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>824</v>
+        <v>733</v>
       </c>
       <c r="D119" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>828</v>
+        <v>734</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="H119" s="6">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="17"/>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>822</v>
+        <v>730</v>
       </c>
       <c r="B120" t="s">
         <v>978</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>825</v>
+        <v>731</v>
       </c>
       <c r="D120" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>826</v>
+        <v>732</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G120" s="6">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="H120" s="6">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="17"/>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -12953,129 +12969,135 @@
         <v>978</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D121" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="H121" s="6">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>566</v>
+        <v>822</v>
       </c>
       <c r="B122" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>567</v>
+        <v>825</v>
+      </c>
+      <c r="D122" s="6">
+        <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>568</v>
+        <v>826</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G122" s="6">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="H122" s="6">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="17"/>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>566</v>
+        <v>822</v>
       </c>
       <c r="B123" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>569</v>
+        <v>823</v>
+      </c>
+      <c r="D123" s="6">
+        <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>570</v>
+        <v>827</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="17"/>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>970</v>
+        <v>566</v>
       </c>
       <c r="B124" t="s">
-        <v>978</v>
+        <v>798</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>879</v>
+        <v>567</v>
       </c>
       <c r="E124" t="s">
-        <v>872</v>
+        <v>568</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="11"/>
-        <v>21</v>
+        <f t="shared" si="17"/>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>970</v>
+        <v>566</v>
       </c>
       <c r="B125" t="s">
-        <v>978</v>
+        <v>798</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>878</v>
+        <v>569</v>
       </c>
       <c r="E125" t="s">
-        <v>873</v>
+        <v>570</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="17"/>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -13086,22 +13108,22 @@
         <v>978</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E126" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="11"/>
-        <v>18</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -13112,22 +13134,22 @@
         <v>978</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E127" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="11"/>
-        <v>21</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -13138,22 +13160,22 @@
         <v>978</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="E128" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G128" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="H128" s="6">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -13164,74 +13186,74 @@
         <v>978</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="E129" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G129" s="6">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="H129" s="6">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>660</v>
+        <v>970</v>
       </c>
       <c r="B130" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>661</v>
+        <v>870</v>
       </c>
       <c r="E130" t="s">
-        <v>662</v>
+        <v>871</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G130" s="6">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="H130" s="6">
-        <f t="shared" si="11"/>
-        <v>29</v>
+        <f t="shared" si="17"/>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>660</v>
+        <v>970</v>
       </c>
       <c r="B131" t="s">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>663</v>
+        <v>876</v>
       </c>
       <c r="E131" t="s">
-        <v>664</v>
+        <v>877</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G131" s="6">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="H131" s="6">
-        <f t="shared" si="11"/>
-        <v>31</v>
+        <f t="shared" si="17"/>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -13242,22 +13264,22 @@
         <v>798</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E132" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G132" s="6">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="H132" s="6">
-        <f t="shared" si="11"/>
-        <v>28</v>
+        <f t="shared" si="17"/>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -13268,22 +13290,22 @@
         <v>798</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E133" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" ref="F133:F165" si="12">COUNTIF($C$2:$C$542,C133)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G133" s="6">
-        <f t="shared" ref="G133:G165" si="13">LEN(C133)</f>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" ref="H133:H165" si="14">LEN(E133)</f>
-        <v>41</v>
+        <f t="shared" si="17"/>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -13294,74 +13316,74 @@
         <v>798</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E134" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G134" s="6">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="H134" s="6">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>963</v>
+        <v>660</v>
       </c>
       <c r="B135" t="s">
         <v>798</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>945</v>
+        <v>667</v>
       </c>
       <c r="E135" t="s">
-        <v>936</v>
+        <v>668</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F135:F167" si="18">COUNTIF($C$2:$C$544,C135)</f>
         <v>1</v>
       </c>
       <c r="G135" s="6">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" ref="G135:G167" si="19">LEN(C135)</f>
+        <v>9</v>
       </c>
       <c r="H135" s="6">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" ref="H135:H167" si="20">LEN(E135)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>963</v>
+        <v>660</v>
       </c>
       <c r="B136" t="s">
         <v>798</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>1012</v>
+        <v>669</v>
       </c>
       <c r="E136" t="s">
-        <v>937</v>
+        <v>670</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G136" s="6">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>5</v>
       </c>
       <c r="H136" s="6">
-        <f t="shared" si="14"/>
-        <v>31</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -13372,22 +13394,22 @@
         <v>798</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>987</v>
+        <v>945</v>
       </c>
       <c r="E137" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="H137" s="6">
-        <f t="shared" si="14"/>
-        <v>24</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -13398,22 +13420,22 @@
         <v>798</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="E138" t="s">
-        <v>992</v>
+        <v>937</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="H138" s="6">
-        <f t="shared" si="14"/>
-        <v>24</v>
+        <f t="shared" si="20"/>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -13424,21 +13446,21 @@
         <v>798</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E139" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G139" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="H139" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
     </row>
@@ -13450,22 +13472,22 @@
         <v>798</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>946</v>
+        <v>988</v>
       </c>
       <c r="E140" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G140" s="6">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="H140" s="6">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="20"/>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -13476,22 +13498,22 @@
         <v>798</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>947</v>
+        <v>989</v>
       </c>
       <c r="E141" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G141" s="6">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="H141" s="6">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="20"/>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -13502,21 +13524,21 @@
         <v>798</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E142" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G142" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="H142" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
     </row>
@@ -13528,21 +13550,21 @@
         <v>798</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E143" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G143" s="6">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="H143" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
     </row>
@@ -13554,21 +13576,21 @@
         <v>798</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E144" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G144" s="6">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="H144" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
     </row>
@@ -13580,21 +13602,21 @@
         <v>798</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E145" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F145" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G145" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="H145" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
     </row>
@@ -13606,21 +13628,21 @@
         <v>798</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E146" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F146" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G146" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="H146" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
     </row>
@@ -13632,18 +13654,22 @@
         <v>798</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>990</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>1001</v>
+        <v>951</v>
+      </c>
+      <c r="E147" t="s">
+        <v>999</v>
       </c>
       <c r="F147" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G147" s="6">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="H147" s="6">
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -13654,22 +13680,22 @@
         <v>798</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E148" t="s">
-        <v>965</v>
+        <v>1000</v>
       </c>
       <c r="F148" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G148" s="6">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="H148" s="6">
-        <f t="shared" si="14"/>
-        <v>23</v>
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -13680,22 +13706,18 @@
         <v>798</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="E149" t="s">
-        <v>966</v>
+        <v>990</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>1001</v>
       </c>
       <c r="F149" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G149" s="6">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="H149" s="6">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="19"/>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -13706,22 +13728,22 @@
         <v>798</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E150" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F150" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G150" s="6">
-        <f t="shared" si="13"/>
-        <v>22</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="H150" s="6">
-        <f t="shared" si="14"/>
-        <v>29</v>
+        <f t="shared" si="20"/>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -13732,22 +13754,22 @@
         <v>798</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="E151" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F151" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="H151" s="6">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -13758,22 +13780,22 @@
         <v>798</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E152" t="s">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="F152" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G152" s="6">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>22</v>
       </c>
       <c r="H152" s="6">
-        <f t="shared" si="14"/>
-        <v>69</v>
+        <f t="shared" si="20"/>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -13784,22 +13806,22 @@
         <v>798</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="E153" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="F153" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G153" s="6">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="H153" s="6">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -13810,22 +13832,22 @@
         <v>798</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>1013</v>
+        <v>956</v>
       </c>
       <c r="E154" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F154" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G154" s="6">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="H154" s="6">
-        <f t="shared" si="14"/>
-        <v>65</v>
+        <f t="shared" si="20"/>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -13836,22 +13858,22 @@
         <v>798</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E155" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F155" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G155" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="H155" s="6">
-        <f t="shared" si="14"/>
-        <v>68</v>
+        <f t="shared" si="20"/>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -13862,22 +13884,22 @@
         <v>798</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>959</v>
+        <v>1013</v>
       </c>
       <c r="E156" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F156" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G156" s="6">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="H156" s="6">
-        <f t="shared" si="14"/>
-        <v>40</v>
+        <f t="shared" si="20"/>
+        <v>65</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -13888,22 +13910,22 @@
         <v>798</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E157" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F157" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G157" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="H157" s="6">
-        <f t="shared" si="14"/>
-        <v>83</v>
+        <f t="shared" si="20"/>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -13914,22 +13936,22 @@
         <v>798</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E158" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F158" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G158" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="H158" s="6">
-        <f t="shared" si="14"/>
-        <v>69</v>
+        <f t="shared" si="20"/>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -13940,22 +13962,22 @@
         <v>798</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E159" t="s">
-        <v>1002</v>
+        <v>943</v>
       </c>
       <c r="F159" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G159" s="6">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="H159" s="6">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -13966,22 +13988,22 @@
         <v>798</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>929</v>
+        <v>961</v>
       </c>
       <c r="E160" t="s">
-        <v>1011</v>
+        <v>944</v>
       </c>
       <c r="F160" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G160" s="6">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="H160" s="6">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="20"/>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -13992,22 +14014,22 @@
         <v>798</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>928</v>
+        <v>962</v>
       </c>
       <c r="E161" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F161" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G161" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="H161" s="6">
+        <f t="shared" si="20"/>
         <v>21</v>
-      </c>
-      <c r="H161" s="6">
-        <f t="shared" si="14"/>
-        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -14018,22 +14040,22 @@
         <v>798</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E162" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F162" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G162" s="6">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>18</v>
       </c>
       <c r="H162" s="6">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -14044,22 +14066,22 @@
         <v>798</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E163" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F163" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G163" s="6">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
       <c r="H163" s="6">
-        <f t="shared" si="14"/>
-        <v>17</v>
+        <f t="shared" si="20"/>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -14070,22 +14092,22 @@
         <v>798</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E164" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F164" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G164" s="6">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
       <c r="H164" s="6">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="20"/>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -14096,22 +14118,22 @@
         <v>798</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E165" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="F165" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G165" s="6">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="H165" s="6">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -14122,22 +14144,22 @@
         <v>798</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
       <c r="E166" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F166" s="6">
-        <f t="shared" ref="F166:F197" si="15">COUNTIF($C$2:$C$542,C166)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G166" s="6">
-        <f t="shared" ref="G166:G197" si="16">LEN(C166)</f>
-        <v>23</v>
+        <f t="shared" si="19"/>
+        <v>18</v>
       </c>
       <c r="H166" s="6">
-        <f t="shared" ref="H166:H197" si="17">LEN(E166)</f>
-        <v>24</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -14148,22 +14170,22 @@
         <v>798</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E167" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G167" s="6">
-        <f t="shared" si="16"/>
-        <v>19</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
       <c r="H167" s="6">
-        <f t="shared" si="17"/>
-        <v>20</v>
+        <f t="shared" si="20"/>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -14174,74 +14196,74 @@
         <v>798</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>935</v>
+        <v>969</v>
       </c>
       <c r="E168" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F168" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F168:F199" si="21">COUNTIF($C$2:$C$544,C168)</f>
         <v>1</v>
       </c>
       <c r="G168" s="6">
-        <f t="shared" si="16"/>
-        <v>19</v>
+        <f t="shared" ref="G168:G199" si="22">LEN(C168)</f>
+        <v>23</v>
       </c>
       <c r="H168" s="6">
-        <f t="shared" si="17"/>
-        <v>20</v>
+        <f t="shared" ref="H168:H199" si="23">LEN(E168)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>635</v>
+        <v>963</v>
       </c>
       <c r="B169" t="s">
         <v>798</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>636</v>
+        <v>934</v>
       </c>
       <c r="E169" t="s">
-        <v>637</v>
+        <v>1004</v>
       </c>
       <c r="F169" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G169" s="6">
-        <f t="shared" si="16"/>
-        <v>7</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="H169" s="6">
-        <f t="shared" si="17"/>
-        <v>14</v>
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>635</v>
+        <v>963</v>
       </c>
       <c r="B170" t="s">
         <v>798</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>638</v>
+        <v>935</v>
       </c>
       <c r="E170" t="s">
-        <v>639</v>
+        <v>1003</v>
       </c>
       <c r="F170" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G170" s="6">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="H170" s="6">
-        <f t="shared" si="17"/>
-        <v>11</v>
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -14252,22 +14274,22 @@
         <v>798</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E171" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F171" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G171" s="6">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="H171" s="6">
-        <f t="shared" si="17"/>
-        <v>19</v>
+        <f t="shared" si="23"/>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -14278,22 +14300,22 @@
         <v>798</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E172" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F172" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G172" s="6">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="H172" s="6">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="23"/>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -14304,22 +14326,22 @@
         <v>798</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>821</v>
+        <v>640</v>
       </c>
       <c r="E173" t="s">
-        <v>1014</v>
+        <v>641</v>
       </c>
       <c r="F173" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G173" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="H173" s="6">
-        <f t="shared" si="17"/>
-        <v>33</v>
+        <f t="shared" si="23"/>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -14330,22 +14352,22 @@
         <v>798</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E174" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G174" s="6">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="H174" s="6">
-        <f t="shared" si="17"/>
-        <v>45</v>
+        <f t="shared" si="23"/>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -14356,22 +14378,22 @@
         <v>798</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>646</v>
+        <v>821</v>
       </c>
       <c r="E175" t="s">
-        <v>818</v>
+        <v>1014</v>
       </c>
       <c r="F175" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G175" s="6">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="H175" s="6">
-        <f t="shared" si="17"/>
-        <v>53</v>
+        <f t="shared" si="23"/>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -14382,22 +14404,22 @@
         <v>798</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>819</v>
+        <v>644</v>
       </c>
       <c r="E176" t="s">
-        <v>820</v>
+        <v>645</v>
       </c>
       <c r="F176" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G176" s="6">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="H176" s="6">
-        <f t="shared" si="17"/>
-        <v>53</v>
+        <f t="shared" si="23"/>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -14408,22 +14430,22 @@
         <v>798</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E177" t="s">
-        <v>648</v>
+        <v>818</v>
       </c>
       <c r="F177" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G177" s="6">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="H177" s="6">
-        <f t="shared" si="17"/>
-        <v>34</v>
+        <f t="shared" si="23"/>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -14434,22 +14456,22 @@
         <v>798</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>649</v>
+        <v>819</v>
       </c>
       <c r="E178" t="s">
-        <v>650</v>
+        <v>820</v>
       </c>
       <c r="F178" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G178" s="6">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="H178" s="6">
-        <f t="shared" si="17"/>
-        <v>29</v>
+        <f t="shared" si="23"/>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -14460,22 +14482,22 @@
         <v>798</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E179" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F179" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G179" s="6">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="H179" s="6">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="23"/>
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -14486,22 +14508,22 @@
         <v>798</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E180" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F180" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G180" s="6">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="H180" s="6">
-        <f t="shared" si="17"/>
-        <v>27</v>
+        <f t="shared" si="23"/>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -14512,22 +14534,22 @@
         <v>798</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E181" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F181" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G181" s="6">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="H181" s="6">
-        <f t="shared" si="17"/>
-        <v>29</v>
+        <f t="shared" si="23"/>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -14538,22 +14560,22 @@
         <v>798</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>816</v>
+        <v>653</v>
       </c>
       <c r="E182" t="s">
-        <v>817</v>
+        <v>654</v>
       </c>
       <c r="F182" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G182" s="6">
-        <f t="shared" si="16"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>13</v>
       </c>
       <c r="H182" s="6">
-        <f t="shared" si="17"/>
-        <v>25</v>
+        <f t="shared" si="23"/>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -14564,80 +14586,74 @@
         <v>798</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>753</v>
+        <v>655</v>
       </c>
       <c r="E183" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="F183" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G183" s="6">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>13</v>
       </c>
       <c r="H183" s="6">
-        <f t="shared" si="17"/>
-        <v>25</v>
+        <f t="shared" si="23"/>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>923</v>
+        <v>635</v>
       </c>
       <c r="B184" t="s">
         <v>798</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="D184" s="6">
-        <v>1</v>
+        <v>816</v>
       </c>
       <c r="E184" t="s">
-        <v>916</v>
+        <v>817</v>
       </c>
       <c r="F184" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G184" s="6">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>8</v>
       </c>
       <c r="H184" s="6">
-        <f t="shared" si="17"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>923</v>
+        <v>635</v>
       </c>
       <c r="B185" t="s">
         <v>798</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="D185" s="6">
-        <v>2</v>
+        <v>753</v>
       </c>
       <c r="E185" t="s">
-        <v>915</v>
+        <v>754</v>
       </c>
       <c r="F185" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G185" s="6">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
       <c r="H185" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -14648,24 +14664,24 @@
         <v>798</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D186" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G186" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="H186" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
     </row>
@@ -14677,77 +14693,83 @@
         <v>798</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="D187" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F187" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G187" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="H187" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>550</v>
+        <v>923</v>
       </c>
       <c r="B188" t="s">
-        <v>975</v>
+        <v>798</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>551</v>
+        <v>914</v>
+      </c>
+      <c r="D188" s="6">
+        <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>545</v>
+        <v>914</v>
       </c>
       <c r="F188" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G188" s="6">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="H188" s="6">
-        <f t="shared" si="17"/>
-        <v>24</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>550</v>
+        <v>923</v>
       </c>
       <c r="B189" t="s">
-        <v>975</v>
+        <v>798</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>552</v>
+        <v>922</v>
+      </c>
+      <c r="D189" s="6">
+        <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>553</v>
+        <v>922</v>
       </c>
       <c r="F189" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G189" s="6">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
       <c r="H189" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -14758,22 +14780,22 @@
         <v>975</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E190" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F190" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G190" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="H190" s="6">
-        <f t="shared" si="17"/>
-        <v>9</v>
+        <f t="shared" si="23"/>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -14784,22 +14806,22 @@
         <v>975</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E191" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F191" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G191" s="6">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="H191" s="6">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -14810,22 +14832,22 @@
         <v>975</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E192" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F192" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G192" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="H192" s="6">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -14836,74 +14858,74 @@
         <v>975</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="E193" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F193" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G193" s="6">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="H193" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B194" t="s">
         <v>975</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="E194" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="F194" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G194" s="6">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="H194" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B195" t="s">
         <v>975</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>540</v>
+        <v>435</v>
       </c>
       <c r="E195" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="F195" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G195" s="6">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="H195" s="6">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -14914,22 +14936,22 @@
         <v>975</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E196" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F196" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G196" s="6">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="H196" s="6">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -14940,22 +14962,22 @@
         <v>975</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E197" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F197" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G197" s="6">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="H197" s="6">
-        <f t="shared" si="17"/>
-        <v>24</v>
+        <f t="shared" si="23"/>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -14966,22 +14988,22 @@
         <v>975</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E198" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F198" s="6">
-        <f t="shared" ref="F198:F203" si="18">COUNTIF($C$2:$C$542,C198)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G198" s="6">
-        <f t="shared" ref="G198:G203" si="19">LEN(C198)</f>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="H198" s="6">
-        <f t="shared" ref="H198:H203" si="20">LEN(E198)</f>
-        <v>24</v>
+        <f t="shared" si="23"/>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -14992,74 +15014,74 @@
         <v>975</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E199" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F199" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G199" s="6">
-        <f t="shared" si="19"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
       <c r="H199" s="6">
-        <f t="shared" si="20"/>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>712</v>
+        <v>537</v>
       </c>
       <c r="B200" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>713</v>
+        <v>546</v>
       </c>
       <c r="E200" t="s">
-        <v>714</v>
+        <v>547</v>
       </c>
       <c r="F200" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F200:F205" si="24">COUNTIF($C$2:$C$544,C200)</f>
         <v>1</v>
       </c>
       <c r="G200" s="6">
-        <f t="shared" si="19"/>
-        <v>4</v>
+        <f t="shared" ref="G200:G205" si="25">LEN(C200)</f>
+        <v>5</v>
       </c>
       <c r="H200" s="6">
-        <f t="shared" si="20"/>
-        <v>11</v>
+        <f t="shared" ref="H200:H205" si="26">LEN(E200)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>712</v>
+        <v>537</v>
       </c>
       <c r="B201" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>715</v>
+        <v>548</v>
       </c>
       <c r="E201" t="s">
-        <v>716</v>
+        <v>549</v>
       </c>
       <c r="F201" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="G201" s="6">
-        <f t="shared" si="19"/>
-        <v>7</v>
+        <f t="shared" si="25"/>
+        <v>3</v>
       </c>
       <c r="H201" s="6">
-        <f t="shared" si="20"/>
-        <v>15</v>
+        <f t="shared" si="26"/>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -15070,22 +15092,22 @@
         <v>976</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E202" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F202" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="G202" s="6">
-        <f t="shared" si="19"/>
-        <v>7</v>
+        <f t="shared" si="25"/>
+        <v>4</v>
       </c>
       <c r="H202" s="6">
-        <f t="shared" si="20"/>
-        <v>15</v>
+        <f t="shared" si="26"/>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -15096,29 +15118,84 @@
         <v>976</v>
       </c>
       <c r="C203" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="E203" t="s">
+        <v>716</v>
+      </c>
+      <c r="F203" s="6">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G203" s="6">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="H203" s="6">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>712</v>
+      </c>
+      <c r="B204" t="s">
+        <v>976</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="E204" t="s">
+        <v>718</v>
+      </c>
+      <c r="F204" s="6">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G204" s="6">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="H204" s="6">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>712</v>
+      </c>
+      <c r="B205" t="s">
+        <v>976</v>
+      </c>
+      <c r="C205" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E205" t="s">
         <v>720</v>
       </c>
-      <c r="F203" s="6">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="G203" s="6">
-        <f t="shared" si="19"/>
+      <c r="F205" s="6">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G205" s="6">
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="H203" s="6">
-        <f t="shared" si="20"/>
+      <c r="H205" s="6">
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
     </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H203" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H203">
-    <sortCondition ref="A2:A203"/>
-    <sortCondition ref="D2:D203"/>
+  <autoFilter ref="A1:H205" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H205">
+    <sortCondition ref="A2:A205"/>
+    <sortCondition ref="D2:D205"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/impdata/Data/ApplicationData_v05.xlsx
+++ b/impdata/Data/ApplicationData_v05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA73AADA-7B3B-427F-A178-FB59702B2A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F9D95-1C14-4049-9B18-B711CAC26114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
+    <workbookView xWindow="5280" yWindow="2925" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -2764,9 +2764,6 @@
     <t>Culture_Source</t>
   </si>
   <si>
-    <t>Recommanded</t>
-  </si>
-  <si>
     <t>DiskDiffusion</t>
   </si>
   <si>
@@ -3098,6 +3095,9 @@
   </si>
   <si>
     <t>Vendor's recommandation</t>
+  </si>
+  <si>
+    <t>Recommended</t>
   </si>
 </sst>
 </file>
@@ -3553,28 +3553,28 @@
       <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="6"/>
+    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>797</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>354</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>447</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>449</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>802</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>350</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>450</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>451</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>452</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>453</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>454</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>455</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>456</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>457</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>458</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>459</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>460</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>392</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>461</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>374</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>462</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>404</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>464</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>465</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>466</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>463</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>468</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>469</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>470</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>472</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>473</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>474</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>475</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>476</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>477</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>386</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>364</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>420</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>478</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>479</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>480</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>481</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>482</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>483</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>484</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>485</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>486</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>487</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>488</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>489</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>238</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>490</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>348</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>491</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>492</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>493</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>422</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>377</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>410</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>494</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>362</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>495</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>496</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>433</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>497</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>498</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>499</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>500</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>501</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>502</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>424</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>806</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>379</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>503</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>504</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>505</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>506</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>507</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>508</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>509</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>510</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>511</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>512</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>513</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>514</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>394</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>515</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>372</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>516</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>517</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>518</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>519</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>366</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>520</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>521</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>358</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>522</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>523</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>352</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>524</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>360</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>525</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>526</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>370</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>527</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>528</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>529</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>530</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>531</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>381</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>356</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>384</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>390</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>398</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>402</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>414</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>418</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>428</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>431</v>
       </c>
@@ -9706,27 +9706,27 @@
   <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="6"/>
-    <col min="7" max="7" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="6"/>
+    <col min="1" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>794</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>795</v>
@@ -9749,7 +9749,7 @@
         <v>d 83/140</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>671</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>671</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>671</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>671</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>798</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E5" t="s">
         <v>678</v>
@@ -9853,21 +9853,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B6" t="s">
+        <v>972</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="B6" t="s">
-        <v>973</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>918</v>
-      </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
@@ -9882,21 +9882,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
@@ -9911,12 +9911,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>853</v>
       </c>
       <c r="B8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>851</v>
@@ -9937,12 +9937,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>853</v>
       </c>
       <c r="B9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>852</v>
@@ -9963,12 +9963,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>625</v>
       </c>
       <c r="B10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>626</v>
@@ -9989,12 +9989,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>625</v>
       </c>
       <c r="B11" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>628</v>
@@ -10015,12 +10015,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>625</v>
       </c>
       <c r="B12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>630</v>
@@ -10041,12 +10041,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>625</v>
       </c>
       <c r="B13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>631</v>
@@ -10067,12 +10067,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>625</v>
       </c>
       <c r="B14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>633</v>
@@ -10093,12 +10093,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>561</v>
       </c>
       <c r="B15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>562</v>
@@ -10119,12 +10119,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>561</v>
       </c>
       <c r="B16" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>564</v>
@@ -10145,12 +10145,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>697</v>
       </c>
       <c r="B17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>698</v>
@@ -10171,12 +10171,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>697</v>
       </c>
       <c r="B18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>700</v>
@@ -10197,12 +10197,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>697</v>
       </c>
       <c r="B19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>702</v>
@@ -10223,12 +10223,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>697</v>
       </c>
       <c r="B20" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>704</v>
@@ -10249,12 +10249,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>697</v>
       </c>
       <c r="B21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>706</v>
@@ -10275,7 +10275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>906</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>906</v>
       </c>
@@ -10309,10 +10309,10 @@
         <v>798</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E23" t="s">
         <v>1017</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1018</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ref="F23" si="3">COUNTIF($C$2:$C$544,C23)</f>
@@ -10327,7 +10327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>906</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>798</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>907</v>
+        <v>1018</v>
       </c>
       <c r="E24" t="s">
         <v>659</v>
@@ -10353,7 +10353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>895</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>895</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>895</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>895</v>
       </c>
@@ -10439,10 +10439,10 @@
         <v>798</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E28" t="s">
         <v>1015</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1016</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" ref="F28" si="6">COUNTIF($C$2:$C$544,C28)</f>
@@ -10457,7 +10457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>895</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>895</v>
       </c>
@@ -10509,12 +10509,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B31" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>886</v>
@@ -10538,12 +10538,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B32" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>740</v>
@@ -10567,12 +10567,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B33" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>742</v>
@@ -10596,12 +10596,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B34" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>744</v>
@@ -10625,12 +10625,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B35" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>864</v>
@@ -10651,12 +10651,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>893</v>
@@ -10677,12 +10677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B37" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>865</v>
@@ -10703,12 +10703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B38" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>863</v>
@@ -10729,12 +10729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>862</v>
@@ -10755,12 +10755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>836</v>
       </c>
       <c r="B40" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>837</v>
@@ -10784,12 +10784,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>836</v>
       </c>
       <c r="B41" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>849</v>
@@ -10813,12 +10813,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>836</v>
       </c>
       <c r="B42" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>838</v>
@@ -10842,12 +10842,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>836</v>
       </c>
       <c r="B43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>839</v>
@@ -10871,12 +10871,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>836</v>
       </c>
       <c r="B44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>840</v>
@@ -10900,12 +10900,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>836</v>
       </c>
       <c r="B45" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>845</v>
@@ -10929,12 +10929,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>836</v>
       </c>
       <c r="B46" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>848</v>
@@ -10958,18 +10958,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="E47" t="s">
         <v>911</v>
-      </c>
-      <c r="E47" t="s">
-        <v>912</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="9"/>
@@ -10984,18 +10984,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>908</v>
+      </c>
+      <c r="B48" t="s">
+        <v>976</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="B48" t="s">
-        <v>977</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>910</v>
-      </c>
       <c r="E48" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="9"/>
@@ -11010,7 +11010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>600</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>600</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>600</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>600</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>600</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>600</v>
       </c>
@@ -11166,12 +11166,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>746</v>
       </c>
       <c r="B55" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>815</v>
@@ -11195,12 +11195,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>746</v>
       </c>
       <c r="B56" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>812</v>
@@ -11224,12 +11224,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>746</v>
       </c>
       <c r="B57" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>813</v>
@@ -11253,12 +11253,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>746</v>
       </c>
       <c r="B58" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>814</v>
@@ -11282,12 +11282,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>856</v>
       </c>
       <c r="B59" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>857</v>
@@ -11311,12 +11311,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>856</v>
       </c>
       <c r="B60" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>858</v>
@@ -11340,12 +11340,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>856</v>
       </c>
       <c r="B61" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>859</v>
@@ -11369,12 +11369,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>856</v>
       </c>
       <c r="B62" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>861</v>
@@ -11395,12 +11395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>856</v>
       </c>
       <c r="B63" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>860</v>
@@ -11421,15 +11421,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>856</v>
       </c>
       <c r="B64" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D64" s="6">
         <v>6</v>
@@ -11447,12 +11447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>866</v>
       </c>
       <c r="B65" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>867</v>
@@ -11473,12 +11473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>866</v>
       </c>
       <c r="B66" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>868</v>
@@ -11499,12 +11499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>866</v>
       </c>
       <c r="B67" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>869</v>
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>576</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>576</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>576</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>576</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>576</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>576</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>576</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>576</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>576</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>576</v>
       </c>
@@ -11794,13 +11794,13 @@
         <v>798</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D77" s="6">
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F77" s="6">
         <f t="shared" si="12"/>
@@ -11815,7 +11815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>576</v>
       </c>
@@ -11823,13 +11823,13 @@
         <v>798</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D78" s="6">
         <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="12"/>
@@ -11844,7 +11844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>576</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>576</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F80" s="6">
         <f t="shared" si="12"/>
@@ -11902,7 +11902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>576</v>
       </c>
@@ -11910,20 +11910,20 @@
         <v>798</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D81" s="6">
         <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>589</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>589</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>589</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>589</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>589</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>613</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>613</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>613</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>613</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>613</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>613</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>571</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>571</v>
       </c>
@@ -12261,12 +12261,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>708</v>
       </c>
       <c r="B95" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>709</v>
@@ -12287,12 +12287,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>708</v>
       </c>
       <c r="B96" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>710</v>
@@ -12313,12 +12313,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>708</v>
       </c>
       <c r="B97" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>711</v>
@@ -12339,12 +12339,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>679</v>
       </c>
       <c r="B98" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>680</v>
@@ -12365,12 +12365,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>679</v>
       </c>
       <c r="B99" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>682</v>
@@ -12391,12 +12391,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>679</v>
       </c>
       <c r="B100" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>684</v>
@@ -12417,12 +12417,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>679</v>
       </c>
       <c r="B101" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>686</v>
@@ -12443,12 +12443,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>679</v>
       </c>
       <c r="B102" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>688</v>
@@ -12469,12 +12469,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>690</v>
       </c>
       <c r="B103" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C103" s="8">
         <v>24</v>
@@ -12495,12 +12495,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>690</v>
       </c>
       <c r="B104" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C104" s="8">
         <v>48</v>
@@ -12521,12 +12521,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>690</v>
       </c>
       <c r="B105" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C105" s="8">
         <v>96</v>
@@ -12547,12 +12547,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>690</v>
       </c>
       <c r="B106" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C106" s="8">
         <v>384</v>
@@ -12573,12 +12573,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>690</v>
       </c>
       <c r="B107" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C107" s="8">
         <v>1536</v>
@@ -12599,12 +12599,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>690</v>
       </c>
       <c r="B108" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C108" s="8">
         <v>3456</v>
@@ -12625,12 +12625,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>721</v>
       </c>
       <c r="B109" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>722</v>
@@ -12651,12 +12651,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>721</v>
       </c>
       <c r="B110" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>724</v>
@@ -12677,12 +12677,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>721</v>
       </c>
       <c r="B111" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>726</v>
@@ -12703,12 +12703,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>721</v>
       </c>
       <c r="B112" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>728</v>
@@ -12729,12 +12729,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>739</v>
       </c>
       <c r="B113" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>882</v>
@@ -12758,12 +12758,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>739</v>
       </c>
       <c r="B114" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>883</v>
@@ -12787,12 +12787,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>739</v>
       </c>
       <c r="B115" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>741</v>
@@ -12801,7 +12801,7 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F115" s="6">
         <f t="shared" si="15"/>
@@ -12816,12 +12816,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>739</v>
       </c>
       <c r="B116" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>884</v>
@@ -12830,7 +12830,7 @@
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F116" s="6">
         <f t="shared" si="15"/>
@@ -12845,12 +12845,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>730</v>
       </c>
       <c r="B117" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>735</v>
@@ -12874,12 +12874,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>730</v>
       </c>
       <c r="B118" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>737</v>
@@ -12903,12 +12903,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>730</v>
       </c>
       <c r="B119" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>733</v>
@@ -12932,12 +12932,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>730</v>
       </c>
       <c r="B120" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>731</v>
@@ -12961,12 +12961,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>822</v>
       </c>
       <c r="B121" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>824</v>
@@ -12990,12 +12990,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>822</v>
       </c>
       <c r="B122" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>825</v>
@@ -13019,12 +13019,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>822</v>
       </c>
       <c r="B123" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>823</v>
@@ -13048,7 +13048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>566</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>566</v>
       </c>
@@ -13100,12 +13100,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B126" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>879</v>
@@ -13126,12 +13126,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B127" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>878</v>
@@ -13152,12 +13152,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B128" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>880</v>
@@ -13178,12 +13178,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B129" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>881</v>
@@ -13204,12 +13204,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B130" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>870</v>
@@ -13230,12 +13230,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B131" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>876</v>
@@ -13256,7 +13256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>660</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>660</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>660</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>660</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>660</v>
       </c>
@@ -13386,18 +13386,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B137" t="s">
         <v>798</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E137" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F137" s="6">
         <f t="shared" si="18"/>
@@ -13412,18 +13412,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B138" t="s">
         <v>798</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E138" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F138" s="6">
         <f t="shared" si="18"/>
@@ -13438,18 +13438,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B139" t="s">
         <v>798</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E139" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F139" s="6">
         <f t="shared" si="18"/>
@@ -13464,18 +13464,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B140" t="s">
         <v>798</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E140" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F140" s="6">
         <f t="shared" si="18"/>
@@ -13490,18 +13490,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B141" t="s">
         <v>798</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E141" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F141" s="6">
         <f t="shared" si="18"/>
@@ -13516,18 +13516,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B142" t="s">
         <v>798</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E142" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F142" s="6">
         <f t="shared" si="18"/>
@@ -13542,18 +13542,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B143" t="s">
         <v>798</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E143" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F143" s="6">
         <f t="shared" si="18"/>
@@ -13568,18 +13568,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B144" t="s">
         <v>798</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E144" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F144" s="6">
         <f t="shared" si="18"/>
@@ -13594,18 +13594,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B145" t="s">
         <v>798</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E145" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F145" s="6">
         <f t="shared" si="18"/>
@@ -13620,18 +13620,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B146" t="s">
         <v>798</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E146" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F146" s="6">
         <f t="shared" si="18"/>
@@ -13646,18 +13646,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B147" t="s">
         <v>798</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E147" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F147" s="6">
         <f t="shared" si="18"/>
@@ -13672,18 +13672,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B148" t="s">
         <v>798</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E148" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F148" s="6">
         <f t="shared" si="18"/>
@@ -13698,18 +13698,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B149" t="s">
         <v>798</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F149" s="6">
         <f t="shared" si="18"/>
@@ -13720,18 +13720,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B150" t="s">
         <v>798</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E150" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F150" s="6">
         <f t="shared" si="18"/>
@@ -13746,18 +13746,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B151" t="s">
         <v>798</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E151" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F151" s="6">
         <f t="shared" si="18"/>
@@ -13772,18 +13772,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B152" t="s">
         <v>798</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E152" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F152" s="6">
         <f t="shared" si="18"/>
@@ -13798,18 +13798,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B153" t="s">
         <v>798</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E153" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F153" s="6">
         <f t="shared" si="18"/>
@@ -13824,18 +13824,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B154" t="s">
         <v>798</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E154" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F154" s="6">
         <f t="shared" si="18"/>
@@ -13850,18 +13850,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B155" t="s">
         <v>798</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E155" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F155" s="6">
         <f t="shared" si="18"/>
@@ -13876,18 +13876,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B156" t="s">
         <v>798</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E156" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F156" s="6">
         <f t="shared" si="18"/>
@@ -13902,18 +13902,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B157" t="s">
         <v>798</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E157" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F157" s="6">
         <f t="shared" si="18"/>
@@ -13928,18 +13928,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B158" t="s">
         <v>798</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E158" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F158" s="6">
         <f t="shared" si="18"/>
@@ -13954,18 +13954,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B159" t="s">
         <v>798</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E159" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F159" s="6">
         <f t="shared" si="18"/>
@@ -13980,18 +13980,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B160" t="s">
         <v>798</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E160" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F160" s="6">
         <f t="shared" si="18"/>
@@ -14006,18 +14006,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B161" t="s">
         <v>798</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E161" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F161" s="6">
         <f t="shared" si="18"/>
@@ -14032,18 +14032,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B162" t="s">
         <v>798</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E162" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F162" s="6">
         <f t="shared" si="18"/>
@@ -14058,18 +14058,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B163" t="s">
         <v>798</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E163" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F163" s="6">
         <f t="shared" si="18"/>
@@ -14084,18 +14084,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B164" t="s">
         <v>798</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E164" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F164" s="6">
         <f t="shared" si="18"/>
@@ -14110,18 +14110,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B165" t="s">
         <v>798</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E165" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F165" s="6">
         <f t="shared" si="18"/>
@@ -14136,18 +14136,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B166" t="s">
         <v>798</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E166" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F166" s="6">
         <f t="shared" si="18"/>
@@ -14162,18 +14162,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B167" t="s">
         <v>798</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E167" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F167" s="6">
         <f t="shared" si="18"/>
@@ -14188,18 +14188,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B168" t="s">
         <v>798</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E168" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F168" s="6">
         <f t="shared" ref="F168:F199" si="21">COUNTIF($C$2:$C$544,C168)</f>
@@ -14214,18 +14214,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B169" t="s">
         <v>798</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E169" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F169" s="6">
         <f t="shared" si="21"/>
@@ -14240,18 +14240,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B170" t="s">
         <v>798</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E170" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F170" s="6">
         <f t="shared" si="21"/>
@@ -14266,7 +14266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>635</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>635</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>635</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>635</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>635</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>821</v>
       </c>
       <c r="E175" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F175" s="6">
         <f t="shared" si="21"/>
@@ -14396,7 +14396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>635</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>635</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>635</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>635</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>635</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>635</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>635</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>635</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>635</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>635</v>
       </c>
@@ -14656,21 +14656,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B186" t="s">
         <v>798</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D186" s="6">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F186" s="6">
         <f t="shared" si="21"/>
@@ -14685,21 +14685,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B187" t="s">
         <v>798</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D187" s="6">
         <v>2</v>
       </c>
       <c r="E187" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F187" s="6">
         <f t="shared" si="21"/>
@@ -14714,21 +14714,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B188" t="s">
         <v>798</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D188" s="6">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F188" s="6">
         <f t="shared" si="21"/>
@@ -14743,21 +14743,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B189" t="s">
         <v>798</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D189" s="6">
         <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F189" s="6">
         <f t="shared" si="21"/>
@@ -14772,12 +14772,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>550</v>
       </c>
       <c r="B190" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>551</v>
@@ -14798,12 +14798,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>550</v>
       </c>
       <c r="B191" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>552</v>
@@ -14824,12 +14824,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>550</v>
       </c>
       <c r="B192" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>554</v>
@@ -14850,12 +14850,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>550</v>
       </c>
       <c r="B193" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>556</v>
@@ -14876,12 +14876,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>550</v>
       </c>
       <c r="B194" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>558</v>
@@ -14902,12 +14902,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>550</v>
       </c>
       <c r="B195" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>435</v>
@@ -14928,12 +14928,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>537</v>
       </c>
       <c r="B196" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>538</v>
@@ -14954,12 +14954,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>537</v>
       </c>
       <c r="B197" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>540</v>
@@ -14980,12 +14980,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>537</v>
       </c>
       <c r="B198" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>542</v>
@@ -15006,12 +15006,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>537</v>
       </c>
       <c r="B199" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>544</v>
@@ -15032,12 +15032,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>537</v>
       </c>
       <c r="B200" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>546</v>
@@ -15058,12 +15058,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>537</v>
       </c>
       <c r="B201" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>548</v>
@@ -15084,12 +15084,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>712</v>
       </c>
       <c r="B202" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>713</v>
@@ -15110,12 +15110,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>712</v>
       </c>
       <c r="B203" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>715</v>
@@ -15136,12 +15136,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>712</v>
       </c>
       <c r="B204" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>717</v>
@@ -15162,12 +15162,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>712</v>
       </c>
       <c r="B205" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>719</v>
@@ -15188,7 +15188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="15"/>
     </row>
   </sheetData>
